--- a/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
+++ b/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\PTFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\trans\PTFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF562817-ADC6-4A1C-ACD4-B54DB9451D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464460D-F2F9-4EEE-884A-D6F762DCD09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="390" windowWidth="18700" windowHeight="10580" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -31,12 +33,17 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -507,12 +514,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00;\-#,##0.00;&quot;-&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00;\-#,##0.00;&quot;-&quot;"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -800,9 +807,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,9 +820,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -832,56 +839,53 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -890,19 +894,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,31 +919,31 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,39 +973,42 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="19" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Komma" xfId="4" builtinId="3"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 4" xfId="3" xr:uid="{2C1FBF2C-894D-49DD-8206-01C4CD804758}"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1097,8 +1104,807 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cover"/>
+      <sheetName val="index"/>
+      <sheetName val="TRA_Summary"/>
+      <sheetName val="TRA_Activity"/>
+      <sheetName val="TRA_Vkm"/>
+      <sheetName val="TRA_Energy"/>
+      <sheetName val="TRA_Fuels"/>
+      <sheetName val="TRA_Co2Emissions"/>
+      <sheetName val="TRA_PkmCo"/>
+      <sheetName val="TRA_PkmCoTot"/>
+      <sheetName val="TRA_Stock"/>
+      <sheetName val="TRA_StockTot"/>
+      <sheetName val="TRA_Inv"/>
+      <sheetName val="TRA_ReplNrr"/>
+      <sheetName val="TRA_ReplPmr"/>
+      <sheetName val="TRA_VEff"/>
+      <sheetName val="TRA_VEffInv"/>
+      <sheetName val="TRA_EnergyInt"/>
+      <sheetName val="TRA_Co2EmissionsVkm"/>
+      <sheetName val="TRA_Co2EmissionsInt"/>
+      <sheetName val="TRA_ShareActivity"/>
+      <sheetName val="TRA_ShareEnergy"/>
+      <sheetName val="TRA_ShareCo2Emissions"/>
+      <sheetName val="TRA_AnCo"/>
+      <sheetName val="TRA_AnCoTot"/>
+      <sheetName val="TRA_AnCoY"/>
+      <sheetName val="TRA_AnCoTotY"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="31">
+          <cell r="Q31">
+            <v>5387885.2102444749</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Q32">
+            <v>124572.07616194511</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Q45">
+            <v>4719824.7265817737</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Q47">
+            <v>130898.8274178088</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Q48">
+            <v>1885032.439136676</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Q49">
+            <v>26412.458849760853</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Q51">
+            <v>2671347.2581787882</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Q62">
+            <v>2897.4455713570082</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Q70">
+            <v>3236.2974273826026</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="Q78">
+            <v>543488.40750075632</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="Q80">
+            <v>983.06236435623703</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="Q81">
+            <v>615.80206249370565</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="Q82">
+            <v>33182.745988862516</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="Q83">
+            <v>505026.61755038681</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="Q100">
+            <v>3680.1795346570188</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>1839969.9161456032</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>117316.14408828289</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>599.636173717926</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="Q112">
+            <v>4409.4864845661323</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>328.79533002535788</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>111884.2922517651</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="Q134">
+            <v>93.933848208376304</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="Q142">
+            <v>1143331.6759493628</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="Q161">
+            <v>579322.0961079573</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="Q182">
+            <v>544261.48886478855</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="Q183">
+            <v>328225.04573775321</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="Q184">
+            <v>98021.66850736209</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="Q185">
+            <v>230203.37723039114</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="Q186">
+            <v>113672.99999999999</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="Q187">
+            <v>102363.4431270354</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="Q188">
+            <v>417539.99999999994</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="Q189">
+            <v>112537.44252446789</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="Q190">
+            <v>305002.55747553206</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="30">
+          <cell r="Q30">
+            <v>293976.74779517425</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Q31">
+            <v>191166.81886780218</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Q32">
+            <v>3846.2324936312475</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Q45">
+            <v>172605.06339857326</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Q47">
+            <v>5582.5750553734015</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Q48">
+            <v>74177.437581914812</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Q49">
+            <v>1032.8177560763652</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Q51">
+            <v>91673.952309471148</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Q62">
+            <v>74.131558876047691</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Q70">
+            <v>64.149136861496956</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="Q78">
+            <v>14715.522975597672</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="Q80">
+            <v>21.925543612947141</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="Q81">
+            <v>12.695515409056814</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="Q82">
+            <v>775.11796499400282</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="Q83">
+            <v>13855.821050123206</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="Q100">
+            <v>49.962901458459505</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>102809.92892737206</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>34105.273865086798</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>285.39623739724891</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="Q112">
+            <v>1701.0175139907651</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>135.30737499632764</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>31965.597505412945</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="Q134">
+            <v>17.955233289512304</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="Q142">
+            <v>48245.434062880864</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="Q161">
+            <v>20459.220999404413</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="Q181">
+            <v>7232.0881688056925</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="Q182">
+            <v>5710.1253495797882</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="Q184">
+            <v>1602.2788630107145</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="Q185">
+            <v>2709.0707281001251</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="Q186">
+            <v>850.85415783461542</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="Q187">
+            <v>547.92160063433346</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="Q188">
+            <v>1521.9628192259042</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="Q189">
+            <v>544.96044039996707</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="Q190">
+            <v>977.00237882593729</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cover"/>
+      <sheetName val="index"/>
+      <sheetName val="TRA_Summary"/>
+      <sheetName val="TRA_Activity"/>
+      <sheetName val="TRA_Vkm"/>
+      <sheetName val="TRA_Energy"/>
+      <sheetName val="TRA_Fuels"/>
+      <sheetName val="TRA_Co2Emissions"/>
+      <sheetName val="TRA_PkmCo"/>
+      <sheetName val="TRA_PkmCoTot"/>
+      <sheetName val="TRA_Stock"/>
+      <sheetName val="TRA_StockTot"/>
+      <sheetName val="TRA_Inv"/>
+      <sheetName val="TRA_ReplNrr"/>
+      <sheetName val="TRA_ReplPmr"/>
+      <sheetName val="TRA_VEff"/>
+      <sheetName val="TRA_VEffInv"/>
+      <sheetName val="TRA_EnergyInt"/>
+      <sheetName val="TRA_Co2EmissionsVkm"/>
+      <sheetName val="TRA_Co2EmissionsInt"/>
+      <sheetName val="TRA_ShareActivity"/>
+      <sheetName val="TRA_ShareEnergy"/>
+      <sheetName val="TRA_ShareCo2Emissions"/>
+      <sheetName val="TRA_AnCo"/>
+      <sheetName val="TRA_AnCoTot"/>
+      <sheetName val="TRA_AnCoY"/>
+      <sheetName val="TRA_AnCoTotY"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="31">
+          <cell r="Q31">
+            <v>703591.6530207874</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Q32">
+            <v>5194.594560260115</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Q45">
+            <v>657597.05846052733</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Q47">
+            <v>222.15290830933625</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Q48">
+            <v>347492.75821898459</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Q49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Q51">
+            <v>309043.92193413706</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Q62">
+            <v>500.34638062116721</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Q70">
+            <v>337.87901847508363</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="Q78">
+            <v>40799.999999999993</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="Q80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="Q81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="Q82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="Q83">
+            <v>40627.464882008484</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="Q100">
+            <v>172.53511799151059</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>189072.55787882462</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>23025.81043839869</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>187.03461178483647</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="Q112">
+            <v>728.80113244052245</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>22088.801297183498</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="Q134">
+            <v>21.173396989833488</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="Q142">
+            <v>142868</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="Q161">
+            <v>23178.747440425941</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="Q182">
+            <v>79619.980883199984</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="Q183">
+            <v>62038.999999999985</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="Q184">
+            <v>39380.971188174772</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="Q185">
+            <v>22658.028811825214</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="Q186">
+            <v>4360</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="Q187">
+            <v>13220.980883199998</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="Q188">
+            <v>21990</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="Q189">
+            <v>12823.158721809914</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="Q190">
+            <v>9166.8412781900861</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="30">
+          <cell r="Q30">
+            <v>38189.496069547255</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Q31">
+            <v>24103.702766800881</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Q32">
+            <v>176.51561605676812</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Q45">
+            <v>22790.765163023127</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Q47">
+            <v>11.437236251436515</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Q48">
+            <v>12910.594008440034</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Q49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Q51">
+            <v>9852.0283906228269</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Q62">
+            <v>10.19358667971092</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Q70">
+            <v>6.5119410291194715</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="Q78">
+            <v>1136.4219877209889</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="Q80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="Q82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="Q83">
+            <v>1133.6309809208958</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="Q100">
+            <v>2.7910068000932022</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>14085.793302746375</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>5883.3931608002886</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>78.583619203479174</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="Q112">
+            <v>236.68364708536049</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>5564.3155467970182</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="Q134">
+            <v>3.8103477144307059</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="Q142">
+            <v>7403.7618309283116</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="Q161">
+            <v>798.6383110177751</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="Q181">
+            <v>1011.511523530307</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="Q182">
+            <v>900.65668948522546</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="Q184">
+            <v>549.8607799103695</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="Q185">
+            <v>236.56082408999592</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="Q186">
+            <v>31.509465819345515</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="Q187">
+            <v>82.725619665514529</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="Q188">
+            <v>110.85483404508162</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="Q189">
+            <v>85.111163686381033</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="Q190">
+            <v>25.74367035870058</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1420,21 +2226,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,100 +2248,100 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1554,25 +2360,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DE242F-D303-454D-8CA2-CB74E1DBD13B}">
   <dimension ref="B2:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>81</v>
       </c>
@@ -1580,24 +2386,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E5" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="39"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C9" s="11" t="s">
         <v>51</v>
       </c>
@@ -1605,11 +2411,11 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
@@ -1624,259 +2430,272 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="36">
-        <v>5387885.2102444759</v>
+      <c r="D12" s="35">
+        <f>[2]TRA_Activity!$Q$31-[3]TRA_Activity!$Q$31</f>
+        <v>4684293.5572236879</v>
       </c>
       <c r="E12">
-        <f>D12/1.609344</f>
-        <v>3347876.6567275086</v>
+        <f t="shared" ref="E12:E26" si="0">D12/1.609344</f>
+        <v>2910685.0724417451</v>
       </c>
       <c r="F12">
         <f>E12*1000000</f>
-        <v>3347876656727.5088</v>
+        <v>2910685072441.7451</v>
       </c>
       <c r="G12">
         <f>F39/F12</f>
-        <v>3481.8920040721432</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="43" t="s">
+        <v>3484.6201369344694</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="44">
-        <v>124572.07616194514</v>
+      <c r="D13" s="43">
+        <f>[2]TRA_Activity!$Q$32-[3]TRA_Activity!$Q$32</f>
+        <v>119377.48160168499</v>
       </c>
       <c r="E13">
-        <f>D13/1.609344</f>
-        <v>77405.49948422781</v>
+        <f t="shared" si="0"/>
+        <v>74177.7280691294</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F26" si="0">E13*1000000</f>
-        <v>77405499484.227814</v>
+        <f t="shared" ref="F13:F26" si="1">E13*1000000</f>
+        <v>74177728069.129395</v>
       </c>
       <c r="G13">
         <f>F41/F13</f>
-        <v>1970.3141668820372</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="31" t="s">
+        <v>1961.6918899312168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="38">
-        <v>4719824.7265817737</v>
+      <c r="D14" s="37">
+        <f>[2]TRA_Activity!$Q$45-[3]TRA_Activity!$Q$45</f>
+        <v>4062227.6681212466</v>
       </c>
       <c r="E14">
-        <f>D14/1.609344</f>
-        <v>2932763.1175073655</v>
+        <f t="shared" si="0"/>
+        <v>2524151.2492799838</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>2932763117507.3657</v>
+        <f t="shared" si="1"/>
+        <v>2524151249279.9839</v>
       </c>
       <c r="G14">
         <f>F43/F14</f>
-        <v>2333.7176487982629</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="33" t="s">
+        <v>2353.4753532151553</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="20">
-        <v>1885032.439136676</v>
+        <f>[2]TRA_Activity!$Q$48-[3]TRA_Activity!$Q$48</f>
+        <v>1537539.6809176914</v>
       </c>
       <c r="E15">
-        <f>D15/1.609344</f>
-        <v>1171304.854112406</v>
+        <f t="shared" si="0"/>
+        <v>955382.86464403593</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1171304854112.406</v>
+        <f t="shared" si="1"/>
+        <v>955382864644.03589</v>
       </c>
       <c r="G15">
         <f>F44/F15</f>
-        <v>2511.1557423549634</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="33" t="s">
+        <v>2542.8446201215397</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="20">
-        <v>2671347.2581787887</v>
+        <f>[2]TRA_Activity!$Q$51-[3]TRA_Activity!$Q$51</f>
+        <v>2362303.3362446511</v>
       </c>
       <c r="E16">
-        <f>D16/1.609344</f>
-        <v>1659898.230694487</v>
+        <f t="shared" si="0"/>
+        <v>1467867.2404685705</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1659898230694.4871</v>
+        <f t="shared" si="1"/>
+        <v>1467867240468.5706</v>
       </c>
       <c r="G16">
         <f>F46/F16</f>
-        <v>2189.9603820276511</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="33" t="s">
+        <v>2210.3175592527159</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20">
-        <v>130898.8274178088</v>
+        <f>[2]TRA_Activity!$Q$47-[3]TRA_Activity!$Q$47</f>
+        <v>130676.67450949947</v>
       </c>
       <c r="E17">
-        <f>D17/1.609344</f>
-        <v>81336.760455072872</v>
+        <f t="shared" si="0"/>
+        <v>81198.721037577707</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>81336760455.072876</v>
+        <f t="shared" si="1"/>
+        <v>81198721037.577713</v>
       </c>
       <c r="G17">
         <f>F48/F17</f>
-        <v>2721.5697213063017</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="33" t="s">
+        <v>2720.6111796660634</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="20">
-        <v>26412.458849760857</v>
+        <f>[2]TRA_Activity!$Q$49-[3]TRA_Activity!$Q$49</f>
+        <v>26412.458849760853</v>
       </c>
       <c r="E18">
-        <f>D18/1.609344</f>
-        <v>16411.941045395426</v>
+        <f t="shared" si="0"/>
+        <v>16411.941045395422</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>16411941045.395426</v>
+        <f t="shared" si="1"/>
+        <v>16411941045.395422</v>
       </c>
       <c r="G18">
         <f>F49/F18</f>
-        <v>2495.3732332834193</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="33" t="s">
+        <v>2495.3732332834188</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="32" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="20">
-        <v>2897.4455713570092</v>
+        <f>[2]TRA_Activity!$Q$62-[3]TRA_Activity!$Q$62</f>
+        <v>2397.0991907358411</v>
       </c>
       <c r="E19">
-        <f>D19/1.609344</f>
-        <v>1800.389209116888</v>
+        <f t="shared" si="0"/>
+        <v>1489.4883820586779</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1800389209.116888</v>
+        <f t="shared" si="1"/>
+        <v>1489488382.0586779</v>
       </c>
       <c r="G19">
         <f>F51/F19</f>
-        <v>1632.7079084865254</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="33" t="s">
+        <v>1702.1330453167679</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="20">
-        <v>3236.2974273826035</v>
+        <f>[2]TRA_Activity!$Q$70-[3]TRA_Activity!$Q$70</f>
+        <v>2898.4184089075188</v>
       </c>
       <c r="E20">
-        <f>D20/1.609344</f>
-        <v>2010.9419908873449</v>
+        <f t="shared" si="0"/>
+        <v>1800.9937023455013</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>2010941990.8873448</v>
+        <f t="shared" si="1"/>
+        <v>1800993702.3455014</v>
       </c>
       <c r="G20">
         <f>F54/F20</f>
-        <v>1264.9199415465537</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="31" t="s">
+        <v>1269.0023139808088</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="38">
-        <v>543488.40750075656</v>
+      <c r="D21" s="37">
+        <f>[2]TRA_Activity!$Q$78-[3]TRA_Activity!$Q$78</f>
+        <v>502688.40750075632</v>
       </c>
       <c r="E21">
-        <f>D21/1.609344</f>
-        <v>337708.03973591508</v>
+        <f t="shared" si="0"/>
+        <v>312356.0950926317</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>337708039735.9151</v>
+        <f t="shared" si="1"/>
+        <v>312356095092.63171</v>
       </c>
       <c r="G21">
         <f>F55/F21</f>
-        <v>1727.8501143984813</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="33" t="s">
+        <v>1723.8235049591005</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="20">
-        <v>615.80206249370519</v>
+        <f>[2]TRA_Activity!$Q$81-[3]TRA_Activity!$Q$81</f>
+        <v>615.80206249370565</v>
       </c>
       <c r="E22">
-        <f>D22/1.609344</f>
-        <v>382.64166175392279</v>
+        <f t="shared" si="0"/>
+        <v>382.64166175392307</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>382641661.75392276</v>
+        <f t="shared" si="1"/>
+        <v>382641661.75392306</v>
       </c>
       <c r="G22">
         <f>F56/F22</f>
-        <v>1315.6181244798629</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="33" t="s">
+        <v>1315.6181244798613</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="20">
-        <v>505026.61755038705</v>
+        <f>[2]TRA_Activity!$Q$83-[3]TRA_Activity!$Q$83</f>
+        <v>464399.15266837832</v>
       </c>
       <c r="E23">
-        <f>D23/1.609344</f>
-        <v>313808.99145887204</v>
+        <f t="shared" si="0"/>
+        <v>288564.25516755792</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>313808991458.87207</v>
+        <f t="shared" si="1"/>
+        <v>288564255167.55792</v>
       </c>
       <c r="G23">
         <f>F58/F23</f>
-        <v>1750.8085043867732</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="33" t="s">
+        <v>1748.199980464995</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="20">
-        <v>983.06236435623714</v>
+        <f>[2]TRA_Activity!$Q$80-[3]TRA_Activity!$Q$80</f>
+        <v>983.06236435623703</v>
       </c>
       <c r="E24">
-        <f>D24/1.609344</f>
+        <f t="shared" si="0"/>
         <v>610.84663338368739</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610846633.38368738</v>
       </c>
       <c r="G24">
@@ -1884,769 +2703,883 @@
         <v>1423.2787003857434</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="33" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="20">
-        <v>33182.745988862509</v>
+        <f>[2]TRA_Activity!$Q$82-[3]TRA_Activity!$Q$82</f>
+        <v>33182.745988862516</v>
       </c>
       <c r="E25">
-        <f>D25/1.609344</f>
-        <v>20618.802436808106</v>
+        <f t="shared" si="0"/>
+        <v>20618.802436808113</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>20618802436.808105</v>
+        <f t="shared" si="1"/>
+        <v>20618802436.808113</v>
       </c>
       <c r="G25">
         <f>F61/F25</f>
-        <v>1490.651530056957</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="33" t="s">
+        <v>1490.6515300569565</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="20">
-        <v>3680.1795346570198</v>
+        <f>[2]TRA_Activity!$Q$100-[3]TRA_Activity!$Q$100</f>
+        <v>3507.6444166655083</v>
       </c>
       <c r="E26">
-        <f>D26/1.609344</f>
-        <v>2286.757545097269</v>
+        <f t="shared" si="0"/>
+        <v>2179.5491931280744</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>2286757545.0972691</v>
+        <f t="shared" si="1"/>
+        <v>2179549193.1280746</v>
       </c>
       <c r="G26">
         <f>F63/F26</f>
-        <v>866.36180025023555</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
+        <v>858.19980055662859</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="36">
-        <v>1839969.9161456034</v>
+      <c r="D27" s="35">
+        <f>[2]TRA_Activity!$Q$108-[3]TRA_Activity!$Q$108</f>
+        <v>1650897.3582667785</v>
       </c>
       <c r="E27">
-        <f>D27/1.46</f>
-        <v>1260253.367223016</v>
+        <f t="shared" ref="E27:E36" si="2">D27/1.46</f>
+        <v>1130751.6152512182</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F36" si="1">E27*1000000</f>
-        <v>1260253367223.0159</v>
+        <f t="shared" ref="F27:F36" si="3">E27*1000000</f>
+        <v>1130751615251.2183</v>
       </c>
       <c r="G27">
         <f>F64/F27</f>
-        <v>3234.8113429535342</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="43" t="s">
+        <v>3111.3317806325736</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="44">
-        <v>117316.14408828289</v>
+      <c r="D28" s="43">
+        <f>[2]TRA_Activity!$Q$109-[3]TRA_Activity!$Q$109</f>
+        <v>94290.333649884196</v>
       </c>
       <c r="E28">
-        <f>D28/1.46</f>
-        <v>80353.523348138973</v>
+        <f t="shared" si="2"/>
+        <v>64582.420308139859</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>80353523348.138977</v>
+        <f t="shared" si="3"/>
+        <v>64582420308.139862</v>
       </c>
       <c r="G28">
         <f>F65/F28</f>
-        <v>16830.165305842122</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="33" t="s">
+        <v>17327.798933421887</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="20">
-        <v>4409.4864845661323</v>
+        <f>[2]TRA_Activity!$Q$112-[3]TRA_Activity!$Q$112</f>
+        <v>3680.6853521256098</v>
       </c>
       <c r="E29">
-        <f>D29/1.46</f>
-        <v>3020.1962223055702</v>
+        <f t="shared" si="2"/>
+        <v>2521.017364469596</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>3020196222.3055701</v>
+        <f t="shared" si="3"/>
+        <v>2521017364.4695959</v>
       </c>
       <c r="G29">
         <f>F66/F29</f>
-        <v>22332.913821835606</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="33" t="s">
+        <v>23032.232431605884</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="20">
-        <v>111884.29225176512</v>
+        <f>[2]TRA_Activity!$Q$115-[3]TRA_Activity!$Q$115</f>
+        <v>89795.490954581604</v>
       </c>
       <c r="E30">
-        <f>D30/1.46</f>
-        <v>76633.076884770635</v>
+        <f t="shared" si="2"/>
+        <v>61503.760927795622</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>76633076884.77063</v>
+        <f t="shared" si="3"/>
+        <v>61503760927.795624</v>
       </c>
       <c r="G30">
         <f>F68/F30</f>
-        <v>16540.107520697708</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="33" t="s">
+        <v>17021.393296759205</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="20">
-        <v>599.636173717926</v>
+        <f>[2]TRA_Activity!$Q$111-[3]TRA_Activity!$Q$111</f>
+        <v>412.60156193308956</v>
       </c>
       <c r="E31">
-        <f>D31/1.46</f>
-        <v>410.70970802597674</v>
+        <f t="shared" si="2"/>
+        <v>282.60380954321204</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>410709708.02597672</v>
+        <f t="shared" si="3"/>
+        <v>282603809.54321206</v>
       </c>
       <c r="G31">
         <f>F70/F31</f>
-        <v>27554.024457796106</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+        <v>29018.221116293127</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="20">
-        <v>328.79533002535783</v>
+        <f>[2]TRA_Activity!$Q$113-[3]TRA_Activity!$Q$113</f>
+        <v>328.79533002535788</v>
       </c>
       <c r="E32">
-        <f>D32/1.46</f>
-        <v>225.20228083928617</v>
+        <f t="shared" si="2"/>
+        <v>225.20228083928623</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>225202280.83928618</v>
+        <f t="shared" si="3"/>
+        <v>225202280.83928624</v>
       </c>
       <c r="G32">
         <f>F71/F32</f>
-        <v>23824.316439482522</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="33" t="s">
+        <v>23824.316439482518</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C33" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="20">
-        <v>93.933848208376332</v>
+        <f>[2]TRA_Activity!$Q$134-[3]TRA_Activity!$Q$134</f>
+        <v>72.760451218542812</v>
       </c>
       <c r="E33">
-        <f>D33/1.46</f>
-        <v>64.338252197518031</v>
+        <f t="shared" si="2"/>
+        <v>49.835925492152612</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>64338252.197518028</v>
+        <f t="shared" si="3"/>
+        <v>49835925.492152609</v>
       </c>
       <c r="G33">
         <f>F73/F33</f>
-        <v>11066.073701280979</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="31" t="s">
+        <v>11254.564011237073</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="38">
-        <v>1722653.7720573205</v>
+      <c r="D34" s="37">
+        <f>SUM(D35:D36)</f>
+        <v>1556607.0246168943</v>
       </c>
       <c r="E34">
-        <f>D34/1.46</f>
-        <v>1179899.8438748771</v>
+        <f t="shared" si="2"/>
+        <v>1066169.1949430783</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>1179899843874.8772</v>
+        <f t="shared" si="3"/>
+        <v>1066169194943.0784</v>
       </c>
       <c r="G34">
         <f>F74/F34</f>
-        <v>2308.9407296516902</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="33" t="s">
+        <v>2250.1796658340199</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="20">
-        <v>1143331.675949363</v>
+        <f>[2]TRA_Activity!$Q$142-[3]TRA_Activity!$Q$142</f>
+        <v>1000463.6759493628</v>
       </c>
       <c r="E35">
-        <f>D35/1.46</f>
-        <v>783103.88763655</v>
+        <f t="shared" si="2"/>
+        <v>685249.09311600192</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>783103887636.55005</v>
+        <f t="shared" si="3"/>
+        <v>685249093116.00195</v>
       </c>
       <c r="G35">
         <f>F75/F35</f>
-        <v>2442.9163882759312</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="45" t="s">
+        <v>2363.3432950809224</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="21">
-        <v>579322.0961079573</v>
+        <f>[2]TRA_Activity!$Q$161-[3]TRA_Activity!$Q$161</f>
+        <v>556143.34866753139</v>
       </c>
       <c r="E36">
-        <f>D36/1.46</f>
-        <v>396795.95623832691</v>
+        <f t="shared" si="2"/>
+        <v>380920.10182707629</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>396795956238.3269</v>
+        <f t="shared" si="3"/>
+        <v>380920101827.07629</v>
       </c>
       <c r="G36">
         <f>F77/F36</f>
-        <v>2044.5306280167476</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="33"/>
+        <v>2046.606071415634</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="32"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="24">
-        <v>293976.74779517431</v>
+        <f>[2]TRA_Energy!$Q$30-[3]TRA_Energy!$Q$30</f>
+        <v>255787.25172562699</v>
       </c>
       <c r="F39">
-        <f>D39*39652608749.183</f>
-        <v>1.1656944961679292E+16</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="27" t="s">
+        <f t="shared" ref="F39:F78" si="4">D39*39652608749.183</f>
+        <v>1.014263181570507E+16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="46">
-        <v>191166.81886780201</v>
+      <c r="D40" s="45">
+        <f>[2]TRA_Energy!$Q$31-[3]TRA_Energy!$Q$31</f>
+        <v>167063.1161010013</v>
       </c>
       <c r="F40">
-        <f>D40*39652608749.183</f>
-        <v>7580263074390887</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="29" t="s">
+        <f t="shared" si="4"/>
+        <v>6624488379172339</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="47">
-        <v>3846.2324936312457</v>
+      <c r="D41" s="46">
+        <f>[2]TRA_Energy!$Q$32-[3]TRA_Energy!$Q$32</f>
+        <v>3669.7168775744794</v>
       </c>
       <c r="F41">
-        <f>D41*39652608749.183</f>
-        <v>152513152228354.28</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="48" t="s">
+        <f t="shared" si="4"/>
+        <v>145513847566734.31</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="49">
-        <v>107.68650343189209</v>
+      <c r="D42" s="48">
+        <f>E42*D41</f>
+        <v>102.74443362052361</v>
+      </c>
+      <c r="E42" s="72">
+        <v>2.7997918381222134E-2</v>
       </c>
       <c r="F42">
-        <f>D42*39652608749.183</f>
-        <v>4270050788152.3691</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="31" t="s">
+        <f t="shared" si="4"/>
+        <v>4074084827511.0264</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="50">
-        <v>172605.06339857329</v>
-      </c>
+      <c r="D43" s="49">
+        <f>[2]TRA_Energy!$Q$45-[3]TRA_Energy!$Q$45</f>
+        <v>149814.29823555012</v>
+      </c>
+      <c r="E43" s="72"/>
       <c r="F43">
-        <f>D43*39652608749.183</f>
-        <v>6844241047071553</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>5940527752967686</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="25">
-        <v>74177.437581914812</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$48-[3]TRA_Energy!$Q$48</f>
+        <v>61266.843573474776</v>
+      </c>
+      <c r="E44" s="72"/>
       <c r="F44">
-        <f>D44*39652608749.183</f>
-        <v>2941328910452611</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>2429390177516392</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="25">
-        <v>2514.1906108860603</v>
+        <f>E45*D44</f>
+        <v>2076.5953623155465</v>
+      </c>
+      <c r="E45" s="72">
+        <v>3.3894276923621375E-2</v>
       </c>
       <c r="F45">
-        <f>D45*39652608749.183</f>
-        <v>99694216614334.344</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>82342423432266.281</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="25">
-        <v>91673.952309471162</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$51-[3]TRA_Energy!$Q$51</f>
+        <v>81821.923918848319</v>
+      </c>
+      <c r="E46" s="72"/>
       <c r="F46">
-        <f>D46*39652608749.183</f>
-        <v>3635111363418721</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>3244452736259510.5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C47" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="25">
-        <v>5021.7860998862934</v>
+        <f>E47*D46</f>
+        <v>4482.1041293664784</v>
+      </c>
+      <c r="E47" s="73">
+        <v>5.477876728750436E-2</v>
       </c>
       <c r="F47">
-        <f>D47*39652608749.183</f>
-        <v>199126919440876.81</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>177727121414866.47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="25">
-        <v>5582.5750553734015</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$47-[3]TRA_Energy!$Q$47</f>
+        <v>5571.1378191219646</v>
+      </c>
+      <c r="E48" s="72"/>
       <c r="F48">
-        <f>D48*39652608749.183</f>
-        <v>221363664483670.09</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>220910148229419.91</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="25">
-        <v>1032.8177560763654</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$49-[3]TRA_Energy!$Q$49</f>
+        <v>1032.8177560763652</v>
+      </c>
+      <c r="E49" s="72"/>
       <c r="F49">
-        <f>D49*39652608749.183</f>
-        <v>40953918390905.242</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>40953918390905.227</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C50" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D50" s="25">
-        <v>51.599980668448353</v>
+        <f>E50*D49</f>
+        <v>51.599980668448339</v>
+      </c>
+      <c r="E50" s="72">
+        <v>4.9960392687742584E-2</v>
       </c>
       <c r="F50">
-        <f>D50*39652608749.183</f>
-        <v>2046073844911.3887</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>2046073844911.3882</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C51" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="25">
-        <v>74.131558876047706</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$62-[3]TRA_Energy!$Q$62</f>
+        <v>63.937972196336773</v>
+      </c>
+      <c r="E51" s="72"/>
       <c r="F51">
-        <f>D51*39652608749.183</f>
-        <v>2939509700078.9438</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>2535307395717.4829</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C52" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="25">
-        <v>1.2918998911237471</v>
+        <f>E52*D51</f>
+        <v>1.1142549889883619</v>
+      </c>
+      <c r="E52" s="72">
+        <v>1.742712430051389E-2</v>
       </c>
       <c r="F52">
-        <f>D52*39652608749.183</f>
-        <v>51227200925.842056</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>44183117125.180725</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C53" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="25">
-        <v>26.355920049678055</v>
+        <f>E53*D51</f>
+        <v>22.73180422609013</v>
+      </c>
+      <c r="E53" s="72">
+        <v>0.35552901421844768</v>
       </c>
       <c r="F53">
-        <f>D53*39652608749.183</f>
-        <v>1045080985954.6316</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>901375339140.17651</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C54" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="25">
-        <v>64.149136861496928</v>
+        <f>[2]TRA_Energy!$Q$70-[3]TRA_Energy!$Q$70</f>
+        <v>57.637195832377486</v>
       </c>
       <c r="F54">
-        <f>D54*39652608749.183</f>
-        <v>2543680625566.7305</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="31" t="s">
+        <f t="shared" si="4"/>
+        <v>2285465175741.3052</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C55" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="50">
-        <v>14715.522975597674</v>
+      <c r="D55" s="49">
+        <f>[2]TRA_Energy!$Q$78-[3]TRA_Energy!$Q$78</f>
+        <v>13579.100987876684</v>
       </c>
       <c r="F55">
-        <f>D55*39652608749.183</f>
-        <v>583508875090987.75</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>538446778637918.5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="25">
-        <v>12.695515409056817</v>
+        <f>[2]TRA_Energy!$Q$81</f>
+        <v>12.695515409056814</v>
       </c>
       <c r="F56">
-        <f>D56*39652608749.183</f>
-        <v>503410305384.55396</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>503410305384.55377</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="25">
-        <v>0.45578455026590903</v>
+        <f>E57*D56</f>
+        <v>0.45578455026590892</v>
+      </c>
+      <c r="E57" s="71">
+        <v>3.5901224612019944E-2</v>
       </c>
       <c r="F57">
-        <f>D57*39652608749.183</f>
-        <v>18073046445.616421</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>18073046445.616417</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C58" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="25">
-        <v>13855.821050123208</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$83-[3]TRA_Energy!$Q$83</f>
+        <v>12722.19006920231</v>
+      </c>
+      <c r="E58" s="71"/>
       <c r="F58">
-        <f>D58*39652608749.183</f>
-        <v>549419450999229.5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>504468025246820.56</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="25">
-        <v>791.97333003175083</v>
+        <f>E59*D58</f>
+        <v>727.17706139207314</v>
+      </c>
+      <c r="E59" s="71">
+        <v>5.7158166749325078E-2</v>
       </c>
       <c r="F59">
-        <f>D59*39652608749.183</f>
-        <v>31403808595536.598</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>28834467506760.504</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C60" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="25">
+        <f>[2]TRA_Energy!$Q$80-[3]TRA_Energy!$Q$80</f>
         <v>21.925543612947141</v>
       </c>
+      <c r="E60" s="71"/>
       <c r="F60">
-        <f>D60*39652608749.183</f>
+        <f t="shared" si="4"/>
         <v>869405002497.34119</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C61" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D61" s="25">
+        <f>[2]TRA_Energy!$Q$82-[3]TRA_Energy!$Q$82</f>
         <v>775.11796499400282</v>
       </c>
+      <c r="E61" s="71"/>
       <c r="F61">
-        <f>D61*39652608749.183</f>
+        <f t="shared" si="4"/>
         <v>30735449400370.117</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="51" t="s">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C62" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D62" s="25">
+        <f>E62*D61</f>
         <v>68.469832130224631</v>
       </c>
+      <c r="E62" s="71">
+        <v>8.8334724806377551E-2</v>
+      </c>
       <c r="F62">
-        <f>D62*39652608749.183</f>
+        <f t="shared" si="4"/>
         <v>2715007464582.0366</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="33" t="s">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C63" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="25">
-        <v>49.962901458459505</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$100-[3]TRA_Energy!$Q$100</f>
+        <v>47.171894658366305</v>
+      </c>
+      <c r="E63" s="71"/>
       <c r="F63">
-        <f>D63*39652608749.183</f>
-        <v>1981159383506.2793</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="27" t="s">
+        <f t="shared" si="4"/>
+        <v>1870488682845.8745</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="46">
-        <v>102809.92892737211</v>
-      </c>
+      <c r="D64" s="45">
+        <f>[2]TRA_Energy!$Q$108-[3]TRA_Energy!$Q$108</f>
+        <v>88724.135624625691</v>
+      </c>
+      <c r="E64" s="71"/>
       <c r="F64">
-        <f>D64*39652608749.183</f>
-        <v>4076681887288397.5</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="43" t="s">
+        <f t="shared" si="4"/>
+        <v>3518143436532731.5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C65" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="52">
-        <v>34105.273865086812</v>
-      </c>
+      <c r="D65" s="51">
+        <f>[2]TRA_Energy!$Q$109-[3]TRA_Energy!$Q$109</f>
+        <v>28221.880704286508</v>
+      </c>
+      <c r="E65" s="71"/>
       <c r="F65">
-        <f>D65*39652608749.183</f>
-        <v>1352363080856023.5</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>1119071193733190</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D66" s="25">
-        <v>1701.0175139907658</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$112-[3]TRA_Energy!$Q$112</f>
+        <v>1464.3338669054046</v>
+      </c>
+      <c r="E66" s="71"/>
       <c r="F66">
-        <f>D66*39652608749.183</f>
-        <v>67449781957783.75</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>58064657902578.219</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="25">
-        <v>54.641850832452228</v>
+        <f>E67*D66</f>
+        <v>47.038852960797584</v>
+      </c>
+      <c r="E67" s="71">
+        <v>3.2123038347945464E-2</v>
       </c>
       <c r="F67">
-        <f>D67*39652608749.183</f>
-        <v>2166691932390.4475</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>1865213232464.855</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C68" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="25">
-        <v>31965.597505412963</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$115-[3]TRA_Energy!$Q$115</f>
+        <v>26401.281958615928</v>
+      </c>
+      <c r="E68" s="71"/>
       <c r="F68">
-        <f>D68*39652608749.183</f>
-        <v>1267519331316000.3</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>1046879703981861.1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D69" s="25">
-        <v>1746.2122212764443</v>
+        <f>E69*D68</f>
+        <v>1442.2455643350202</v>
+      </c>
+      <c r="E69" s="71">
+        <v>5.4627861124158426E-2</v>
       </c>
       <c r="F69">
-        <f>D69*39652608749.183</f>
-        <v>69241870003316.617</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>57188799082821.195</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D70" s="25">
-        <v>285.39623739724891</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$111-[3]TRA_Energy!$Q$111</f>
+        <v>206.81261819376974</v>
+      </c>
+      <c r="E70" s="71"/>
       <c r="F70">
-        <f>D70*39652608749.183</f>
-        <v>11316705340002.061</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>8200659833631.7168</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D71" s="25">
-        <v>135.30737499632761</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$113-[3]TRA_Energy!$Q$113</f>
+        <v>135.30737499632764</v>
+      </c>
+      <c r="E71" s="71"/>
       <c r="F71">
-        <f>D71*39652608749.183</f>
-        <v>5365290401608.3652</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>5365290401608.3662</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="25">
-        <v>7.8802622102309474</v>
+        <f>E72*D71</f>
+        <v>7.8802622102309492</v>
+      </c>
+      <c r="E72" s="71">
+        <v>5.8239709479581778E-2</v>
       </c>
       <c r="F72">
-        <f>D72*39652608749.183</f>
-        <v>312472954263.25983</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>312472954263.25989</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="25">
-        <v>17.955233289512304</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$134-[3]TRA_Energy!$Q$134</f>
+        <v>14.144885575081599</v>
+      </c>
+      <c r="E73" s="71"/>
       <c r="F73">
-        <f>D73*39652608749.183</f>
-        <v>711971840629.3374</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="31" t="s">
+        <f t="shared" si="4"/>
+        <v>560881613510.67297</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="50">
-        <v>68704.655062285296</v>
-      </c>
+      <c r="D74" s="49">
+        <f>SUM(D75,D77)</f>
+        <v>60502.25492033919</v>
+      </c>
+      <c r="E74" s="71"/>
       <c r="F74">
-        <f>D74*39652608749.183</f>
-        <v>2724318806432374</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>2399072242799542</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="25">
-        <v>48245.434062880871</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$142-[3]TRA_Energy!$Q$142</f>
+        <v>40841.672231952551</v>
+      </c>
+      <c r="E75" s="71"/>
       <c r="F75">
-        <f>D75*39652608749.183</f>
-        <v>1913057320829921.5</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="51" t="s">
+        <f t="shared" si="4"/>
+        <v>1619478849675986</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D76" s="25">
-        <v>2576.2787291151872</v>
+        <f>E76*D75</f>
+        <v>2180.9220598064362</v>
+      </c>
+      <c r="E76" s="71">
+        <v>5.3399431037502623E-2</v>
       </c>
       <c r="F76">
-        <f>D76*39652608749.183</f>
-        <v>102156172474446.92</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="33" t="s">
+        <f t="shared" si="4"/>
+        <v>86479249149966.906</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C77" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="25">
-        <v>20459.220999404424</v>
-      </c>
+        <f>[2]TRA_Energy!$Q$161-[3]TRA_Energy!$Q$161</f>
+        <v>19660.582688386639</v>
+      </c>
+      <c r="E77" s="71"/>
       <c r="F77">
-        <f>D77*39652608749.183</f>
-        <v>811261485602452.38</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="53" t="s">
+        <f t="shared" si="4"/>
+        <v>779593393123555.88</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C78" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="26">
-        <v>1184.1803881672447</v>
+      <c r="D78" s="25">
+        <f>E78*D77</f>
+        <v>1137.9551763092857</v>
+      </c>
+      <c r="E78" s="71">
+        <v>5.7880033076612089E-2</v>
       </c>
       <c r="F78">
-        <f>D78*39652608749.183</f>
-        <v>46955841620451.406</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="54"/>
-    </row>
-    <row r="82" spans="3:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="C82" s="55" t="s">
+        <f t="shared" si="4"/>
+        <v>45122891380299.664</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C82" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="3:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="C83" s="55" t="s">
+    <row r="83" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C83" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C84" s="56" t="s">
+    <row r="84" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C84" s="55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="3:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="C85" s="55" t="s">
+    <row r="85" spans="3:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="C85" s="54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="54"/>
-    </row>
-    <row r="88" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C88" s="55" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" s="53"/>
+    </row>
+    <row r="88" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C88" s="54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="3:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="C89" s="55" t="s">
+    <row r="89" spans="3:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="C89" s="54" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2663,22 +3596,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95AFD5E-44E7-48E7-98B3-5F193EB532B6}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="71.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>81</v>
       </c>
@@ -2686,22 +3619,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E5" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E6" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -2709,11 +3642,11 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
@@ -2728,190 +3661,196 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="28">
-        <f t="shared" ref="C12" si="0">SUM(C13,C14,C17)</f>
-        <v>544261.48886478855</v>
+      <c r="C12" s="27">
+        <f>[2]TRA_Activity!$Q$182-[3]TRA_Activity!$Q$182</f>
+        <v>464641.5079815886</v>
       </c>
       <c r="D12">
         <f>C12/1.609344</f>
-        <v>338188.41022478009</v>
+        <v>288714.8477774724</v>
       </c>
       <c r="E12">
         <f>D12*1000000</f>
-        <v>338188410224.78009</v>
+        <v>288714847777.47241</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F17" si="1">E25/E12</f>
-        <v>669.51249525430558</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+        <f t="shared" ref="F12:F17" si="0">E25/E12</f>
+        <v>660.54094736816467</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="30">
-        <v>102363.4431270354</v>
+      <c r="C13" s="29">
+        <f>[2]TRA_Activity!$Q$187-[3]TRA_Activity!$Q$187</f>
+        <v>89142.462243835398</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D17" si="2">C13/1.609344</f>
-        <v>63605.69469736451</v>
+        <f t="shared" ref="D13:D17" si="1">C13/1.609344</f>
+        <v>55390.558043423523</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E17" si="3">D13*1000000</f>
-        <v>63605694697.36451</v>
+        <f t="shared" ref="E13:E17" si="2">D13*1000000</f>
+        <v>55390558043.423523</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>333.02127432238541</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="31">
+        <f>[2]TRA_Activity!$Q$183-[3]TRA_Activity!$Q$183</f>
+        <v>266186.04573775321</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="1"/>
-        <v>341.58137818561647</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="32">
-        <f t="shared" ref="C14" si="4">SUM(C15:C16)</f>
-        <v>328225.04573775316</v>
-      </c>
-      <c r="D14">
+        <v>165400.34059700923</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
-        <v>203949.58799222115</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>203949587992.22116</v>
+        <v>165400340597.00922</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>196.42737364344225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="17">
+        <f>[2]TRA_Activity!$Q$184-[3]TRA_Activity!$Q$184</f>
+        <v>58640.697319187318</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
-        <v>838.2280160516367</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="17">
-        <v>98021.668507362105</v>
-      </c>
-      <c r="D15">
+        <v>36437.640006852052</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
-        <v>60907.841025512316</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>60907841025.512314</v>
+        <v>36437640006.852051</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1145.2751188577431</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="17">
+        <f>[2]TRA_Activity!$Q$185-[3]TRA_Activity!$Q$185</f>
+        <v>207545.34841856593</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>1043.1257419785591</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="17">
-        <v>230203.37723039108</v>
-      </c>
-      <c r="D16">
+        <v>128962.70059015718</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="2"/>
-        <v>143041.74696670883</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>143041746966.70883</v>
+        <v>128962700590.15718</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>760.23119400832763</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="34">
+        <f>[2]TRA_Activity!$Q$186-[3]TRA_Activity!$Q$186</f>
+        <v>109312.99999999999</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
-        <v>750.98161154463276</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="35">
-        <v>113673</v>
-      </c>
-      <c r="D17">
+        <v>67923.949137039672</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
-        <v>70633.127535194464</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>70633127535.194458</v>
+        <v>67923949137.039673</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>477.65953739512156</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+        <f t="shared" si="0"/>
+        <v>478.31663081975677</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="28">
-        <f t="shared" ref="C18" si="5">SUM(C19:C20)</f>
-        <v>417540.00000000006</v>
+      <c r="C18" s="27">
+        <f>[2]TRA_Activity!$Q$188-[3]TRA_Activity!$Q$188</f>
+        <v>395549.99999999994</v>
       </c>
       <c r="D18">
         <f>C18/1.46</f>
-        <v>285986.30136986304</v>
+        <v>270924.65753424657</v>
       </c>
       <c r="E18">
         <f>D18*1000000</f>
-        <v>285986301369.86304</v>
+        <v>270924657534.24655</v>
       </c>
       <c r="F18">
         <f>E31/E18</f>
-        <v>211.02338088396263</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>206.53015989196234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="17">
-        <v>112537.44252446789</v>
+        <f>[2]TRA_Activity!$Q$189-[3]TRA_Activity!$Q$189</f>
+        <v>99714.28380265797</v>
       </c>
       <c r="D19">
         <f>C19/1.46</f>
-        <v>77080.440085251976</v>
+        <v>68297.454659354771</v>
       </c>
       <c r="E19">
         <f>D19*1000000</f>
-        <v>77080440085.251968</v>
+        <v>68297454659.354774</v>
       </c>
       <c r="F19">
         <f>E32/E19</f>
-        <v>280.34483330741767</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>266.98247458949857</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="19">
-        <v>305002.55747553217</v>
+        <f>[2]TRA_Activity!$Q$190-[3]TRA_Activity!$Q$190</f>
+        <v>295835.71619734197</v>
       </c>
       <c r="D20">
         <f>C20/1.46</f>
-        <v>208905.86128461108</v>
+        <v>202627.20287489178</v>
       </c>
       <c r="E20">
         <f>D20*1000000</f>
-        <v>208905861284.61108</v>
+        <v>202627202874.89178</v>
       </c>
       <c r="F20">
         <f>E33/E20</f>
-        <v>185.44569710194045</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186.1541236859193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
@@ -2919,133 +3858,139 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E23" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="15">
-        <f t="shared" ref="C24" si="6">SUM(C25,C31)</f>
-        <v>7232.0881688056943</v>
+        <f>[2]TRA_Energy!$Q$181-[3]TRA_Energy!$Q$181</f>
+        <v>6220.5766452753851</v>
       </c>
       <c r="E24">
         <f>C24*39652608749.183</f>
-        <v>286771162597247.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+        <v>246662091909410.16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="36">
-        <f t="shared" ref="C25" si="7">SUM(C26,C27,C30)</f>
-        <v>5710.1253495797901</v>
+      <c r="C25" s="35">
+        <f>[2]TRA_Energy!$Q$182-[3]TRA_Energy!$Q$182</f>
+        <v>4809.4686600945624</v>
       </c>
       <c r="E25">
         <f>C25*39652608749.183</f>
-        <v>226421366395679.22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+        <v>190707979070187.09</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="37">
-        <v>547.92160063433357</v>
+      <c r="C26" s="36">
+        <f>[2]TRA_Energy!$Q$187-[3]TRA_Energy!$Q$187</f>
+        <v>465.19598096881896</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E32" si="8">C26*39652608749.183</f>
-        <v>21726520855179.328</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+        <f t="shared" ref="E26:E32" si="3">C26*39652608749.183</f>
+        <v>18446234225048.957</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="38">
-        <f t="shared" ref="C27" si="9">SUM(C28:C29)</f>
-        <v>4311.3495911108403</v>
+      <c r="C27" s="37">
+        <f>[2]TRA_Energy!$Q$186-[3]TRA_Energy!$Q$186</f>
+        <v>819.34469201526986</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
-        <v>170956258517268.25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+        <f t="shared" si="3"/>
+        <v>32489154503201.34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="20">
-        <v>1602.2788630107148</v>
+        <f>[2]TRA_Energy!$Q$184-[3]TRA_Energy!$Q$184</f>
+        <v>1052.418083100345</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
-        <v>63534536862049.656</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+        <f t="shared" si="3"/>
+        <v>41731122489743.141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="20">
-        <v>2709.0707281001251</v>
+        <f>[2]TRA_Energy!$Q$185-[3]TRA_Energy!$Q$185</f>
+        <v>2472.509904010129</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
-        <v>107421721655218.58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+        <f t="shared" si="3"/>
+        <v>98041467852193.656</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="39">
-        <v>850.85415783461553</v>
+      <c r="C30" s="38">
+        <f>[2]TRA_Energy!$Q$186-[3]TRA_Energy!$Q$186</f>
+        <v>819.34469201526986</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
-        <v>33738587023231.609</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
+        <f t="shared" si="3"/>
+        <v>32489154503201.34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="36">
-        <f t="shared" ref="C31" si="10">SUM(C32:C33)</f>
-        <v>1521.9628192259047</v>
+      <c r="C31" s="35">
+        <f>[2]TRA_Energy!$Q$188-[3]TRA_Energy!$Q$188</f>
+        <v>1411.1079851808227</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
-        <v>60349796201568.328</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>55954112839223.078</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="20">
-        <v>544.96044039996718</v>
+        <f>[2]TRA_Energy!$Q$189-[3]TRA_Energy!$Q$189</f>
+        <v>459.84927671358605</v>
       </c>
       <c r="E32">
-        <f t="shared" si="8"/>
-        <v>21609103126962.359</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>18234223453118.617</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="21">
-        <v>977.00237882593763</v>
+        <f>[2]TRA_Energy!$Q$190-[3]TRA_Energy!$Q$190</f>
+        <v>951.25870846723672</v>
       </c>
       <c r="E33">
         <f>C33*39652608749.183</f>
-        <v>38740693074605.977</v>
+        <v>37719889386104.469</v>
       </c>
     </row>
   </sheetData>
@@ -3057,18 +4002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3079,40 +4024,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="58">
-        <v>2189.9603820276511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="57">
+        <f>'Road Calculations'!G16</f>
+        <v>2210.3175592527159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58">
-        <v>1264.9199415465537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="57">
+        <f>'Road Calculations'!G20</f>
+        <v>1269.0023139808088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="58">
-        <v>16540.107520697708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="57">
+        <f>'Road Calculations'!G30</f>
+        <v>17021.393296759205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3120,43 +4068,47 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>11066.073701280979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'Road Calculations'!G33</f>
+        <v>11254.564011237073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="57">
-        <v>1750.8085043867732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="56">
+        <f>'Road Calculations'!G23</f>
+        <v>1748.199980464995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="57">
-        <v>866.36180025023555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="56">
+        <f>'Road Calculations'!G26</f>
+        <v>858.19980055662859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="57">
-        <v>1043.1257419785591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="56">
+        <f>'Rail Calculations'!F15</f>
+        <v>1145.2751188577431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3164,10 +4116,11 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>750.98161154463276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'Rail Calculations'!F16</f>
+        <v>760.23119400832763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -3175,10 +4128,11 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>280.34483330741767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'Rail Calculations'!F19</f>
+        <v>266.98247458949857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3186,10 +4140,11 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>185.44569710194045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <f>'Rail Calculations'!F20</f>
+        <v>186.1541236859193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -3197,49 +4152,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="6">
         <f>(C2-C3)/C2</f>
-        <v>0.42240053659081106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.42587330554897979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="6">
         <f>(C4-C5)/C4</f>
-        <v>0.33095515325802544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.33879889765663951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="6">
         <f>(C6-C7)/C6</f>
-        <v>0.50516472927821321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.50909517781349001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6">
         <f>(C8-C9)/C8</f>
-        <v>0.28006607322315624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.33620212166439506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="6">
         <f>(C10-C11)/C10</f>
-        <v>0.33850859702277336</v>
+        <v>0.30274777783769385</v>
       </c>
     </row>
   </sheetData>
@@ -3255,18 +4210,18 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -3277,80 +4232,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8">
-        <f>0.422</f>
-        <v>0.42199999999999999</v>
+        <f>'HDVs, Rail'!$B$17</f>
+        <v>0.42587330554897979</v>
       </c>
       <c r="C2" s="8">
-        <f>0.422</f>
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'HDVs, Rail'!$B$17</f>
+        <v>0.42587330554897979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <f>0.422</f>
-        <v>0.42199999999999999</v>
+        <f>'HDVs, Rail'!$B$17</f>
+        <v>0.42587330554897979</v>
       </c>
       <c r="C3" s="8">
-        <f>0.422</f>
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'HDVs, Rail'!$B$17</f>
+        <v>0.42587330554897979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
-        <v>0.33900000000000002</v>
+        <f>'HDVs, Rail'!$B$20</f>
+        <v>0.33620212166439506</v>
       </c>
       <c r="C4" s="8">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'HDVs, Rail'!$B$20</f>
+        <v>0.33620212166439506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8">
-        <v>0.33900000000000002</v>
+        <f>'HDVs, Rail'!$B$20</f>
+        <v>0.33620212166439506</v>
       </c>
       <c r="C5" s="8">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'HDVs, Rail'!$B$20</f>
+        <v>0.33620212166439506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="8">
-        <f>0.339</f>
-        <v>0.33900000000000002</v>
+        <f>'HDVs, Rail'!$B$20</f>
+        <v>0.33620212166439506</v>
       </c>
       <c r="C6" s="8">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'HDVs, Rail'!$B$20</f>
+        <v>0.33620212166439506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <f>0.422</f>
-        <v>0.42199999999999999</v>
+        <f>'HDVs, Rail'!$B$17</f>
+        <v>0.42587330554897979</v>
       </c>
       <c r="C7" s="8">
-        <f>0.422</f>
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'HDVs, Rail'!$B$17</f>
+        <v>0.42587330554897979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F8" s="8"/>
     </row>
   </sheetData>
@@ -3367,171 +4327,171 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="61" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:52" s="60" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="60">
+      <c r="B1" s="59">
         <v>2000</v>
       </c>
-      <c r="C1" s="60">
+      <c r="C1" s="59">
         <v>2001</v>
       </c>
-      <c r="D1" s="60">
+      <c r="D1" s="59">
         <v>2002</v>
       </c>
-      <c r="E1" s="60">
+      <c r="E1" s="59">
         <v>2003</v>
       </c>
-      <c r="F1" s="60">
+      <c r="F1" s="59">
         <v>2004</v>
       </c>
-      <c r="G1" s="60">
+      <c r="G1" s="59">
         <v>2005</v>
       </c>
-      <c r="H1" s="60">
+      <c r="H1" s="59">
         <v>2006</v>
       </c>
-      <c r="I1" s="60">
+      <c r="I1" s="59">
         <v>2007</v>
       </c>
-      <c r="J1" s="60">
+      <c r="J1" s="59">
         <v>2008</v>
       </c>
-      <c r="K1" s="60">
+      <c r="K1" s="59">
         <v>2009</v>
       </c>
-      <c r="L1" s="60">
+      <c r="L1" s="59">
         <v>2010</v>
       </c>
-      <c r="M1" s="60">
+      <c r="M1" s="59">
         <v>2011</v>
       </c>
-      <c r="N1" s="60">
+      <c r="N1" s="59">
         <v>2012</v>
       </c>
-      <c r="O1" s="60">
+      <c r="O1" s="59">
         <v>2013</v>
       </c>
-      <c r="P1" s="60">
+      <c r="P1" s="59">
         <v>2014</v>
       </c>
-      <c r="Q1" s="60">
+      <c r="Q1" s="59">
         <v>2015</v>
       </c>
-      <c r="R1" s="60">
+      <c r="R1" s="59">
         <v>2016</v>
       </c>
-      <c r="S1" s="60">
+      <c r="S1" s="59">
         <v>2017</v>
       </c>
-      <c r="T1" s="60">
+      <c r="T1" s="59">
         <v>2018</v>
       </c>
-      <c r="U1" s="60">
+      <c r="U1" s="59">
         <v>2019</v>
       </c>
-      <c r="V1" s="60">
+      <c r="V1" s="59">
         <v>2020</v>
       </c>
-      <c r="W1" s="60">
+      <c r="W1" s="59">
         <v>2021</v>
       </c>
-      <c r="X1" s="60">
+      <c r="X1" s="59">
         <v>2022</v>
       </c>
-      <c r="Y1" s="60">
+      <c r="Y1" s="59">
         <v>2023</v>
       </c>
-      <c r="Z1" s="60">
+      <c r="Z1" s="59">
         <v>2024</v>
       </c>
-      <c r="AA1" s="60">
+      <c r="AA1" s="59">
         <v>2025</v>
       </c>
-      <c r="AB1" s="60">
+      <c r="AB1" s="59">
         <v>2026</v>
       </c>
-      <c r="AC1" s="60">
+      <c r="AC1" s="59">
         <v>2027</v>
       </c>
-      <c r="AD1" s="60">
+      <c r="AD1" s="59">
         <v>2028</v>
       </c>
-      <c r="AE1" s="60">
+      <c r="AE1" s="59">
         <v>2029</v>
       </c>
-      <c r="AF1" s="60">
+      <c r="AF1" s="59">
         <v>2030</v>
       </c>
-      <c r="AG1" s="60">
+      <c r="AG1" s="59">
         <v>2031</v>
       </c>
-      <c r="AH1" s="60">
+      <c r="AH1" s="59">
         <v>2032</v>
       </c>
-      <c r="AI1" s="60">
+      <c r="AI1" s="59">
         <v>2033</v>
       </c>
-      <c r="AJ1" s="60">
+      <c r="AJ1" s="59">
         <v>2034</v>
       </c>
-      <c r="AK1" s="60">
+      <c r="AK1" s="59">
         <v>2035</v>
       </c>
-      <c r="AL1" s="60">
+      <c r="AL1" s="59">
         <v>2036</v>
       </c>
-      <c r="AM1" s="60">
+      <c r="AM1" s="59">
         <v>2037</v>
       </c>
-      <c r="AN1" s="60">
+      <c r="AN1" s="59">
         <v>2038</v>
       </c>
-      <c r="AO1" s="60">
+      <c r="AO1" s="59">
         <v>2039</v>
       </c>
-      <c r="AP1" s="60">
+      <c r="AP1" s="59">
         <v>2040</v>
       </c>
-      <c r="AQ1" s="60">
+      <c r="AQ1" s="59">
         <v>2041</v>
       </c>
-      <c r="AR1" s="60">
+      <c r="AR1" s="59">
         <v>2042</v>
       </c>
-      <c r="AS1" s="60">
+      <c r="AS1" s="59">
         <v>2043</v>
       </c>
-      <c r="AT1" s="60">
+      <c r="AT1" s="59">
         <v>2044</v>
       </c>
-      <c r="AU1" s="60">
+      <c r="AU1" s="59">
         <v>2045</v>
       </c>
-      <c r="AV1" s="60">
+      <c r="AV1" s="59">
         <v>2046</v>
       </c>
-      <c r="AW1" s="60">
+      <c r="AW1" s="59">
         <v>2047</v>
       </c>
-      <c r="AX1" s="60">
+      <c r="AX1" s="59">
         <v>2048</v>
       </c>
-      <c r="AY1" s="60">
+      <c r="AY1" s="59">
         <v>2049</v>
       </c>
-      <c r="AZ1" s="60">
+      <c r="AZ1" s="59">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>89</v>
       </c>
@@ -3587,1454 +4547,1454 @@
       <c r="AY2" s="24"/>
       <c r="AZ2" s="24"/>
     </row>
-    <row r="3" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-    </row>
-    <row r="4" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+    </row>
+    <row r="4" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65">
         <v>5.62456222416911</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="65">
         <v>5.5889249373042729</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="65">
         <v>5.5328048784081627</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="65">
         <v>5.4657060907384434</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="65">
         <v>5.6872618623050322</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="65">
         <v>5.4062380029449955</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="65">
         <v>5.3627410411299969</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="65">
         <v>5.2082670554617723</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="65">
         <v>4.9915781341509806</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="65">
         <v>4.8302097528578569</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="65">
         <v>4.7070893694551117</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="65">
         <v>4.6113374844171231</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="65">
         <v>4.4635768985802615</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="65">
         <v>4.3056636981359198</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="65">
         <v>4.1898922182434513</v>
       </c>
-      <c r="R4" s="66">
+      <c r="R4" s="65">
         <v>4.0957276664550539</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="65">
         <v>4.0874348077053391</v>
       </c>
-      <c r="T4" s="66">
+      <c r="T4" s="65">
         <v>3.999896989682429</v>
       </c>
-      <c r="U4" s="66">
+      <c r="U4" s="65">
         <v>3.9381299958082847</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="65">
         <v>3.8870708974439228</v>
       </c>
-      <c r="W4" s="66">
+      <c r="W4" s="65">
         <v>3.7084664199388571</v>
       </c>
-      <c r="X4" s="66">
+      <c r="X4" s="65">
         <v>3.653775100511544</v>
       </c>
-      <c r="Y4" s="66">
+      <c r="Y4" s="65">
         <v>3.5790184138100511</v>
       </c>
-      <c r="Z4" s="66">
+      <c r="Z4" s="65">
         <v>3.560707615717575</v>
       </c>
-      <c r="AA4" s="66">
+      <c r="AA4" s="65">
         <v>3.5365329740516591</v>
       </c>
-      <c r="AB4" s="66">
+      <c r="AB4" s="65">
         <v>3.5238449310195574</v>
       </c>
-      <c r="AC4" s="66">
+      <c r="AC4" s="65">
         <v>3.5021088815689403</v>
       </c>
-      <c r="AD4" s="66">
+      <c r="AD4" s="65">
         <v>3.4921534931337459</v>
       </c>
-      <c r="AE4" s="66">
+      <c r="AE4" s="65">
         <v>3.4656681340431383</v>
       </c>
-      <c r="AF4" s="66">
+      <c r="AF4" s="65">
         <v>3.415701565651148</v>
       </c>
-      <c r="AG4" s="66">
+      <c r="AG4" s="65">
         <v>3.3654303620543256</v>
       </c>
-      <c r="AH4" s="66">
+      <c r="AH4" s="65">
         <v>3.3122556246051365</v>
       </c>
-      <c r="AI4" s="66">
+      <c r="AI4" s="65">
         <v>3.2624043972406787</v>
       </c>
-      <c r="AJ4" s="66">
+      <c r="AJ4" s="65">
         <v>3.2120932631383061</v>
       </c>
-      <c r="AK4" s="66">
+      <c r="AK4" s="65">
         <v>3.1642582254190694</v>
       </c>
-      <c r="AL4" s="66">
+      <c r="AL4" s="65">
         <v>3.117554742141365</v>
       </c>
-      <c r="AM4" s="66">
+      <c r="AM4" s="65">
         <v>3.0737396833455062</v>
       </c>
-      <c r="AN4" s="66">
+      <c r="AN4" s="65">
         <v>3.032064512161432</v>
       </c>
-      <c r="AO4" s="66">
+      <c r="AO4" s="65">
         <v>2.9937949236356185</v>
       </c>
-      <c r="AP4" s="66">
+      <c r="AP4" s="65">
         <v>2.9577312518187489</v>
       </c>
-      <c r="AQ4" s="66">
+      <c r="AQ4" s="65">
         <v>2.9252288954403367</v>
       </c>
-      <c r="AR4" s="66">
+      <c r="AR4" s="65">
         <v>2.8937592482291046</v>
       </c>
-      <c r="AS4" s="66">
+      <c r="AS4" s="65">
         <v>2.8647274273561267</v>
       </c>
-      <c r="AT4" s="66">
+      <c r="AT4" s="65">
         <v>2.8351456117770479</v>
       </c>
-      <c r="AU4" s="66">
+      <c r="AU4" s="65">
         <v>2.8075087087388688</v>
       </c>
-      <c r="AV4" s="66">
+      <c r="AV4" s="65">
         <v>2.779367343845994</v>
       </c>
-      <c r="AW4" s="66">
+      <c r="AW4" s="65">
         <v>2.7534876126108059</v>
       </c>
-      <c r="AX4" s="66">
+      <c r="AX4" s="65">
         <v>2.7267443754494978</v>
       </c>
-      <c r="AY4" s="66">
+      <c r="AY4" s="65">
         <v>2.7019933675062915</v>
       </c>
-      <c r="AZ4" s="66">
+      <c r="AZ4" s="65">
         <v>2.6761265902205076</v>
       </c>
     </row>
-    <row r="5" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67">
         <v>0</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <v>0</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="67">
         <v>2.3474127059986687</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="67">
         <v>2.3239385789386815</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="67">
         <v>2.3006991931492946</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="67">
         <v>2.3842691597485972</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="67">
         <v>2.3615879713236287</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="67">
         <v>2.3991447681669786</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <v>2.3943639721591246</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="67">
         <v>2.2250298682014038</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="67">
         <v>2.2907688583612771</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="67">
         <v>2.2938538768890688</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="67">
         <v>2.2837271754554456</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="67">
         <v>2.2731989248120175</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="67">
         <v>2.250314764131041</v>
       </c>
-      <c r="R5" s="68">
+      <c r="R5" s="67">
         <v>2.2289084929349023</v>
       </c>
-      <c r="S5" s="68">
+      <c r="S5" s="67">
         <v>2.2205611649509156</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="67">
         <v>2.2081249669476111</v>
       </c>
-      <c r="U5" s="68">
+      <c r="U5" s="67">
         <v>2.1996088028164418</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="67">
         <v>2.1991248006364512</v>
       </c>
-      <c r="W5" s="68">
+      <c r="W5" s="67">
         <v>2.1917432697443422</v>
       </c>
-      <c r="X5" s="68">
+      <c r="X5" s="67">
         <v>2.1816427940693188</v>
       </c>
-      <c r="Y5" s="68">
+      <c r="Y5" s="67">
         <v>2.1748896162057809</v>
       </c>
-      <c r="Z5" s="68">
+      <c r="Z5" s="67">
         <v>2.1664828154445099</v>
       </c>
-      <c r="AA5" s="68">
+      <c r="AA5" s="67">
         <v>2.1571056690822585</v>
       </c>
-      <c r="AB5" s="68">
+      <c r="AB5" s="67">
         <v>2.1461710021110196</v>
       </c>
-      <c r="AC5" s="68">
+      <c r="AC5" s="67">
         <v>2.134558861583336</v>
       </c>
-      <c r="AD5" s="68">
+      <c r="AD5" s="67">
         <v>2.1209268647580579</v>
       </c>
-      <c r="AE5" s="68">
+      <c r="AE5" s="67">
         <v>2.1074110416682021</v>
       </c>
-      <c r="AF5" s="68">
+      <c r="AF5" s="67">
         <v>2.093619422661837</v>
       </c>
-      <c r="AG5" s="68">
+      <c r="AG5" s="67">
         <v>2.0787008715147128</v>
       </c>
-      <c r="AH5" s="68">
+      <c r="AH5" s="67">
         <v>2.0646886388080476</v>
       </c>
-      <c r="AI5" s="68">
+      <c r="AI5" s="67">
         <v>2.0515820365663497</v>
       </c>
-      <c r="AJ5" s="68">
+      <c r="AJ5" s="67">
         <v>2.0389729863050374</v>
       </c>
-      <c r="AK5" s="68">
+      <c r="AK5" s="67">
         <v>2.0266508272652528</v>
       </c>
-      <c r="AL5" s="68">
+      <c r="AL5" s="67">
         <v>2.014730526112289</v>
       </c>
-      <c r="AM5" s="68">
+      <c r="AM5" s="67">
         <v>2.0031612322682966</v>
       </c>
-      <c r="AN5" s="68">
+      <c r="AN5" s="67">
         <v>1.991466966321233</v>
       </c>
-      <c r="AO5" s="68">
+      <c r="AO5" s="67">
         <v>1.9796539308638987</v>
       </c>
-      <c r="AP5" s="68">
+      <c r="AP5" s="67">
         <v>1.9679286429330767</v>
       </c>
-      <c r="AQ5" s="68">
+      <c r="AQ5" s="67">
         <v>1.9571021903959991</v>
       </c>
-      <c r="AR5" s="68">
+      <c r="AR5" s="67">
         <v>1.9465546033028422</v>
       </c>
-      <c r="AS5" s="68">
+      <c r="AS5" s="67">
         <v>1.9361967225135261</v>
       </c>
-      <c r="AT5" s="68">
+      <c r="AT5" s="67">
         <v>1.9262120345847218</v>
       </c>
-      <c r="AU5" s="68">
+      <c r="AU5" s="67">
         <v>1.916466616754811</v>
       </c>
-      <c r="AV5" s="68">
+      <c r="AV5" s="67">
         <v>1.9068615530390907</v>
       </c>
-      <c r="AW5" s="68">
+      <c r="AW5" s="67">
         <v>1.8973469717536524</v>
       </c>
-      <c r="AX5" s="68">
+      <c r="AX5" s="67">
         <v>1.8879338903067377</v>
       </c>
-      <c r="AY5" s="68">
+      <c r="AY5" s="67">
         <v>1.8786519929831242</v>
       </c>
-      <c r="AZ5" s="68">
+      <c r="AZ5" s="67">
         <v>1.8695322552478311</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61">
         <v>4.9996395082112164</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>5.0215854781086362</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="61">
         <v>5.0240510693088796</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <v>4.960824704172639</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="61">
         <v>5.1680760679352789</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="61">
         <v>5.0256091607470834</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="61">
         <v>4.9887278403166651</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="61">
         <v>4.8412720006200596</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="61">
         <v>4.6666574079139496</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>4.5559080563408614</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="61">
         <v>4.4491637146593801</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="61">
         <v>4.3565587327550608</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="61">
         <v>4.2455579894490878</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="61">
         <v>4.0807308286652137</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="61">
         <v>3.9471557720441846</v>
       </c>
-      <c r="R6" s="62">
+      <c r="R6" s="61">
         <v>3.8365748254552012</v>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="61">
         <v>3.8326726105308118</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="61">
         <v>3.7651252420272172</v>
       </c>
-      <c r="U6" s="62">
+      <c r="U6" s="61">
         <v>3.7160595540365935</v>
       </c>
-      <c r="V6" s="62">
+      <c r="V6" s="61">
         <v>3.6751368421085733</v>
       </c>
-      <c r="W6" s="62">
+      <c r="W6" s="61">
         <v>3.6471474343708712</v>
       </c>
-      <c r="X6" s="62">
+      <c r="X6" s="61">
         <v>3.6231811448795219</v>
       </c>
-      <c r="Y6" s="62">
+      <c r="Y6" s="61">
         <v>3.587899885269247</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="61">
         <v>3.5587976008228153</v>
       </c>
-      <c r="AA6" s="62">
+      <c r="AA6" s="61">
         <v>3.5299812714548597</v>
       </c>
-      <c r="AB6" s="62">
+      <c r="AB6" s="61">
         <v>3.5019263135400007</v>
       </c>
-      <c r="AC6" s="62">
+      <c r="AC6" s="61">
         <v>3.4759254020529178</v>
       </c>
-      <c r="AD6" s="62">
+      <c r="AD6" s="61">
         <v>3.4510881801889428</v>
       </c>
-      <c r="AE6" s="62">
+      <c r="AE6" s="61">
         <v>3.4252426802451112</v>
       </c>
-      <c r="AF6" s="62">
+      <c r="AF6" s="61">
         <v>3.3986449678988921</v>
       </c>
-      <c r="AG6" s="62">
+      <c r="AG6" s="61">
         <v>3.3740366481571598</v>
       </c>
-      <c r="AH6" s="62">
+      <c r="AH6" s="61">
         <v>3.3493287607590037</v>
       </c>
-      <c r="AI6" s="62">
+      <c r="AI6" s="61">
         <v>3.3262301685312123</v>
       </c>
-      <c r="AJ6" s="62">
+      <c r="AJ6" s="61">
         <v>3.3031670584935462</v>
       </c>
-      <c r="AK6" s="62">
+      <c r="AK6" s="61">
         <v>3.2805995005176225</v>
       </c>
-      <c r="AL6" s="62">
+      <c r="AL6" s="61">
         <v>3.2584319550387146</v>
       </c>
-      <c r="AM6" s="62">
+      <c r="AM6" s="61">
         <v>3.2367025281054778</v>
       </c>
-      <c r="AN6" s="62">
+      <c r="AN6" s="61">
         <v>3.2153821045494104</v>
       </c>
-      <c r="AO6" s="62">
+      <c r="AO6" s="61">
         <v>3.194213319800812</v>
       </c>
-      <c r="AP6" s="62">
+      <c r="AP6" s="61">
         <v>3.1737226319073635</v>
       </c>
-      <c r="AQ6" s="62">
+      <c r="AQ6" s="61">
         <v>3.1535059566448695</v>
       </c>
-      <c r="AR6" s="62">
+      <c r="AR6" s="61">
         <v>3.133416836108704</v>
       </c>
-      <c r="AS6" s="62">
+      <c r="AS6" s="61">
         <v>3.1138611447377125</v>
       </c>
-      <c r="AT6" s="62">
+      <c r="AT6" s="61">
         <v>3.0945826541721466</v>
       </c>
-      <c r="AU6" s="62">
+      <c r="AU6" s="61">
         <v>3.0753727811902598</v>
       </c>
-      <c r="AV6" s="62">
+      <c r="AV6" s="61">
         <v>3.0565040648941997</v>
       </c>
-      <c r="AW6" s="62">
+      <c r="AW6" s="61">
         <v>3.0379873137553348</v>
       </c>
-      <c r="AX6" s="62">
+      <c r="AX6" s="61">
         <v>3.0195650003181647</v>
       </c>
-      <c r="AY6" s="62">
+      <c r="AY6" s="61">
         <v>3.0014406780988829</v>
       </c>
-      <c r="AZ6" s="62">
+      <c r="AZ6" s="61">
         <v>2.9835845098402354</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C7" s="70">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C7" s="69">
         <f>(C6-C5)/C6</f>
         <v>1</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <f>(D6-D5)/D6</f>
         <v>1</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="69">
         <f t="shared" ref="E7:N7" si="0">(E6-E5)/E6</f>
         <v>0.53276495926989365</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <f t="shared" si="0"/>
         <v>0.53154188718178752</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <f t="shared" si="0"/>
         <v>0.55482482012528556</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <f t="shared" si="0"/>
         <v>0.52557608769676734</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="69">
         <f t="shared" si="0"/>
         <v>0.52661519190557315</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="69">
         <f t="shared" si="0"/>
         <v>0.50443917056102172</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="69">
         <f t="shared" si="0"/>
         <v>0.48692098800768124</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="69">
         <f t="shared" si="0"/>
         <v>0.51161659965796891</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="69">
         <f t="shared" si="0"/>
         <v>0.48512372093355205</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="69">
         <f t="shared" si="0"/>
         <v>0.47347114601196943</v>
       </c>
-      <c r="O7" s="70">
+      <c r="O7" s="69">
         <f t="shared" ref="O7" si="1">(O6-O5)/O6</f>
         <v>0.46209021732104838</v>
       </c>
-      <c r="P7" s="70">
+      <c r="P7" s="69">
         <f t="shared" ref="P7" si="2">(P6-P5)/P6</f>
         <v>0.44294318340139843</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="70">
         <f t="shared" ref="Q7" si="3">(Q6-Q5)/Q6</f>
         <v>0.42988954728644263</v>
       </c>
-      <c r="R7" s="70">
+      <c r="R7" s="69">
         <f t="shared" ref="R7" si="4">(R6-R5)/R6</f>
         <v>0.41903687681356583</v>
       </c>
-      <c r="S7" s="70">
+      <c r="S7" s="69">
         <f t="shared" ref="S7" si="5">(S6-S5)/S6</f>
         <v>0.42062331156342214</v>
       </c>
-      <c r="T7" s="70">
+      <c r="T7" s="69">
         <f t="shared" ref="T7" si="6">(T6-T5)/T6</f>
         <v>0.41353213372559333</v>
       </c>
-      <c r="U7" s="70">
+      <c r="U7" s="69">
         <f t="shared" ref="U7" si="7">(U6-U5)/U6</f>
         <v>0.40808031442146758</v>
       </c>
-      <c r="V7" s="70">
+      <c r="V7" s="69">
         <f t="shared" ref="V7" si="8">(V6-V5)/V6</f>
         <v>0.40162097491457621</v>
       </c>
-      <c r="W7" s="70">
+      <c r="W7" s="69">
         <f t="shared" ref="W7" si="9">(W6-W5)/W6</f>
         <v>0.39905273664309232</v>
       </c>
-      <c r="X7" s="70">
+      <c r="X7" s="69">
         <f t="shared" ref="X7" si="10">(X6-X5)/X6</f>
         <v>0.39786538215111439</v>
       </c>
-      <c r="Y7" s="70">
+      <c r="Y7" s="69">
         <f t="shared" ref="Y7" si="11">(Y6-Y5)/Y6</f>
         <v>0.39382655989505944</v>
       </c>
-      <c r="Z7" s="70">
+      <c r="Z7" s="69">
         <f t="shared" ref="Z7" si="12">(Z6-Z5)/Z6</f>
         <v>0.39123179836256883</v>
       </c>
-      <c r="AA7" s="70">
+      <c r="AA7" s="69">
         <f t="shared" ref="AA7" si="13">(AA6-AA5)/AA6</f>
         <v>0.38891866466101083</v>
       </c>
-      <c r="AB7" s="70">
+      <c r="AB7" s="69">
         <f t="shared" ref="AB7" si="14">(AB6-AB5)/AB6</f>
         <v>0.38714558504187524</v>
       </c>
-      <c r="AC7" s="70">
+      <c r="AC7" s="69">
         <f t="shared" ref="AC7" si="15">(AC6-AC5)/AC6</f>
         <v>0.38590199308574252</v>
       </c>
-      <c r="AD7" s="70">
+      <c r="AD7" s="69">
         <f t="shared" ref="AD7" si="16">(AD6-AD5)/AD6</f>
         <v>0.385432433476116</v>
       </c>
-      <c r="AE7" s="70">
+      <c r="AE7" s="69">
         <f t="shared" ref="AE7" si="17">(AE6-AE5)/AE6</f>
         <v>0.38474110058753697</v>
       </c>
-      <c r="AF7" s="70">
+      <c r="AF7" s="69">
         <f t="shared" ref="AF7" si="18">(AF6-AF5)/AF6</f>
         <v>0.3839840752898197</v>
       </c>
-      <c r="AG7" s="70">
+      <c r="AG7" s="69">
         <f t="shared" ref="AG7" si="19">(AG6-AG5)/AG6</f>
         <v>0.3839127762141934</v>
       </c>
-      <c r="AH7" s="70">
+      <c r="AH7" s="69">
         <f t="shared" ref="AH7" si="20">(AH6-AH5)/AH6</f>
         <v>0.38355151545644001</v>
       </c>
-      <c r="AI7" s="70">
+      <c r="AI7" s="69">
         <f t="shared" ref="AI7" si="21">(AI6-AI5)/AI6</f>
         <v>0.38321104294707248</v>
       </c>
-      <c r="AJ7" s="70">
+      <c r="AJ7" s="69">
         <f t="shared" ref="AJ7" si="22">(AJ6-AJ5)/AJ6</f>
         <v>0.3827218090401584</v>
       </c>
-      <c r="AK7" s="70">
+      <c r="AK7" s="69">
         <f t="shared" ref="AK7" si="23">(AK6-AK5)/AK6</f>
         <v>0.38223156257096241</v>
       </c>
-      <c r="AL7" s="70">
+      <c r="AL7" s="69">
         <f t="shared" ref="AL7" si="24">(AL6-AL5)/AL6</f>
         <v>0.38168709553784397</v>
       </c>
-      <c r="AM7" s="70">
+      <c r="AM7" s="69">
         <f t="shared" ref="AM7" si="25">(AM6-AM5)/AM6</f>
         <v>0.38111049289389082</v>
       </c>
-      <c r="AN7" s="70">
+      <c r="AN7" s="69">
         <f t="shared" ref="AN7" si="26">(AN6-AN5)/AN6</f>
         <v>0.38064376128002725</v>
       </c>
-      <c r="AO7" s="70">
+      <c r="AO7" s="69">
         <f t="shared" ref="AO7" si="27">(AO6-AO5)/AO6</f>
         <v>0.38023740662776145</v>
       </c>
-      <c r="AP7" s="70">
+      <c r="AP7" s="69">
         <f t="shared" ref="AP7" si="28">(AP6-AP5)/AP6</f>
         <v>0.37993048820703695</v>
       </c>
-      <c r="AQ7" s="70">
+      <c r="AQ7" s="69">
         <f t="shared" ref="AQ7" si="29">(AQ6-AQ5)/AQ6</f>
         <v>0.37938845928858439</v>
       </c>
-      <c r="AR7" s="70">
+      <c r="AR7" s="69">
         <f t="shared" ref="AR7" si="30">(AR6-AR5)/AR6</f>
         <v>0.37877572467498138</v>
       </c>
-      <c r="AS7" s="70">
+      <c r="AS7" s="69">
         <f t="shared" ref="AS7" si="31">(AS6-AS5)/AS6</f>
         <v>0.37820068637754994</v>
       </c>
-      <c r="AT7" s="70">
+      <c r="AT7" s="69">
         <f t="shared" ref="AT7" si="32">(AT6-AT5)/AT6</f>
         <v>0.3775535347269578</v>
       </c>
-      <c r="AU7" s="70">
+      <c r="AU7" s="69">
         <f t="shared" ref="AU7" si="33">(AU6-AU5)/AU6</f>
         <v>0.37683436997413955</v>
       </c>
-      <c r="AV7" s="70">
+      <c r="AV7" s="69">
         <f t="shared" ref="AV7" si="34">(AV6-AV5)/AV6</f>
         <v>0.37612988153997551</v>
       </c>
-      <c r="AW7" s="70">
+      <c r="AW7" s="69">
         <f t="shared" ref="AW7" si="35">(AW6-AW5)/AW6</f>
         <v>0.3754592182913718</v>
       </c>
-      <c r="AX7" s="70">
+      <c r="AX7" s="69">
         <f t="shared" ref="AX7" si="36">(AX6-AX5)/AX6</f>
         <v>0.37476626927792234</v>
       </c>
-      <c r="AY7" s="70">
+      <c r="AY7" s="69">
         <f t="shared" ref="AY7" si="37">(AY6-AY5)/AY6</f>
         <v>0.37408325052319036</v>
       </c>
-      <c r="AZ7" s="70">
+      <c r="AZ7" s="69">
         <f t="shared" ref="AZ7" si="38">(AZ6-AZ5)/AZ6</f>
         <v>0.3733938994917424</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-    </row>
-    <row r="9" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+    </row>
+    <row r="9" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65">
         <v>7.0408969573040423</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="65">
         <v>7.0655214327130524</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="65">
         <v>7.0025872242834533</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>6.9438641770472556</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <v>7.7595849977150406</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="65">
         <v>6.9771406227107677</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="65">
         <v>6.8755413798865002</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="65">
         <v>6.8588814721568818</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="65">
         <v>6.6659365081864337</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="65">
         <v>6.5355467039739574</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="65">
         <v>6.4438768553243486</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="65">
         <v>6.3557221753455</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="65">
         <v>6.0554188029041525</v>
       </c>
-      <c r="P9" s="66">
+      <c r="P9" s="65">
         <v>5.843887923131291</v>
       </c>
-      <c r="Q9" s="66">
+      <c r="Q9" s="65">
         <v>5.7713092964155468</v>
       </c>
-      <c r="R9" s="66">
+      <c r="R9" s="65">
         <v>5.5887348475851892</v>
       </c>
-      <c r="S9" s="66">
+      <c r="S9" s="65">
         <v>5.4894877421490076</v>
       </c>
-      <c r="T9" s="66">
+      <c r="T9" s="65">
         <v>5.3122659937784427</v>
       </c>
-      <c r="U9" s="66">
+      <c r="U9" s="65">
         <v>5.2337410991423008</v>
       </c>
-      <c r="V9" s="66">
+      <c r="V9" s="65">
         <v>5.0827367456795738</v>
       </c>
-      <c r="W9" s="66">
+      <c r="W9" s="65">
         <v>5.0635164634481091</v>
       </c>
-      <c r="X9" s="66">
+      <c r="X9" s="65">
         <v>5.0321578717081517</v>
       </c>
-      <c r="Y9" s="66">
+      <c r="Y9" s="65">
         <v>5.0069630056328389</v>
       </c>
-      <c r="Z9" s="66">
+      <c r="Z9" s="65">
         <v>4.9576246649720188</v>
       </c>
-      <c r="AA9" s="66">
+      <c r="AA9" s="65">
         <v>4.8889281088282939</v>
       </c>
-      <c r="AB9" s="66">
+      <c r="AB9" s="65">
         <v>4.8248868141904042</v>
       </c>
-      <c r="AC9" s="66">
+      <c r="AC9" s="65">
         <v>4.7553266080791863</v>
       </c>
-      <c r="AD9" s="66">
+      <c r="AD9" s="65">
         <v>4.6853319946500473</v>
       </c>
-      <c r="AE9" s="66">
+      <c r="AE9" s="65">
         <v>4.6153809043138887</v>
       </c>
-      <c r="AF9" s="66">
+      <c r="AF9" s="65">
         <v>4.5433134646548599</v>
       </c>
-      <c r="AG9" s="66">
+      <c r="AG9" s="65">
         <v>4.4722195155736451</v>
       </c>
-      <c r="AH9" s="66">
+      <c r="AH9" s="65">
         <v>4.3987596968622924</v>
       </c>
-      <c r="AI9" s="66">
+      <c r="AI9" s="65">
         <v>4.3297242761227492</v>
       </c>
-      <c r="AJ9" s="66">
+      <c r="AJ9" s="65">
         <v>4.2592079135493268</v>
       </c>
-      <c r="AK9" s="66">
+      <c r="AK9" s="65">
         <v>4.1922158543229457</v>
       </c>
-      <c r="AL9" s="66">
+      <c r="AL9" s="65">
         <v>4.1271279378107497</v>
       </c>
-      <c r="AM9" s="66">
+      <c r="AM9" s="65">
         <v>4.0661719381103785</v>
       </c>
-      <c r="AN9" s="66">
+      <c r="AN9" s="65">
         <v>4.0086120511838343</v>
       </c>
-      <c r="AO9" s="66">
+      <c r="AO9" s="65">
         <v>3.9563440793382219</v>
       </c>
-      <c r="AP9" s="66">
+      <c r="AP9" s="65">
         <v>3.9075206881048046</v>
       </c>
-      <c r="AQ9" s="66">
+      <c r="AQ9" s="65">
         <v>3.863537341077647</v>
       </c>
-      <c r="AR9" s="66">
+      <c r="AR9" s="65">
         <v>3.8218946300012306</v>
       </c>
-      <c r="AS9" s="66">
+      <c r="AS9" s="65">
         <v>3.7843162064497626</v>
       </c>
-      <c r="AT9" s="66">
+      <c r="AT9" s="65">
         <v>3.7467270283346328</v>
       </c>
-      <c r="AU9" s="66">
+      <c r="AU9" s="65">
         <v>3.7114523350294211</v>
       </c>
-      <c r="AV9" s="66">
+      <c r="AV9" s="65">
         <v>3.6770167860282923</v>
       </c>
-      <c r="AW9" s="66">
+      <c r="AW9" s="65">
         <v>3.6442513974105273</v>
       </c>
-      <c r="AX9" s="66">
+      <c r="AX9" s="65">
         <v>3.6113863556984218</v>
       </c>
-      <c r="AY9" s="66">
+      <c r="AY9" s="65">
         <v>3.5799248658436271</v>
       </c>
-      <c r="AZ9" s="66">
+      <c r="AZ9" s="65">
         <v>3.5481194766117863</v>
       </c>
     </row>
-    <row r="10" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67">
         <v>3.7404453554890948</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="67">
         <v>3.6836130411665291</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="67">
         <v>3.6455974269545517</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>3.848890926002666</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <v>3.6589317411141047</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="67">
         <v>3.5476378890003653</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <v>3.5482674820667182</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="67">
         <v>3.52778995850896</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="67">
         <v>3.5060502803818219</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="67">
         <v>3.5373244047541443</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="67">
         <v>3.5533027972541613</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="67">
         <v>3.4359310409553387</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <v>3.3893444577958038</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="67">
         <v>3.4054112140276276</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="67">
         <v>3.3432350800428425</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="67">
         <v>3.2784019540509228</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="67">
         <v>3.2664782571996769</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="67">
         <v>3.2495086292413036</v>
       </c>
-      <c r="U10" s="68">
+      <c r="U10" s="67">
         <v>3.2363618088906536</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="67">
         <v>3.2291359193958264</v>
       </c>
-      <c r="W10" s="68">
+      <c r="W10" s="67">
         <v>3.2153265518214686</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="67">
         <v>3.2074524998622738</v>
       </c>
-      <c r="Y10" s="68">
+      <c r="Y10" s="67">
         <v>3.1958470697248713</v>
       </c>
-      <c r="Z10" s="68">
+      <c r="Z10" s="67">
         <v>3.1775641188101869</v>
       </c>
-      <c r="AA10" s="68">
+      <c r="AA10" s="67">
         <v>3.1538459637451783</v>
       </c>
-      <c r="AB10" s="68">
+      <c r="AB10" s="67">
         <v>3.125237074600046</v>
       </c>
-      <c r="AC10" s="68">
+      <c r="AC10" s="67">
         <v>3.0900832025121794</v>
       </c>
-      <c r="AD10" s="68">
+      <c r="AD10" s="67">
         <v>3.0502054580599069</v>
       </c>
-      <c r="AE10" s="68">
+      <c r="AE10" s="67">
         <v>3.0078337927969692</v>
       </c>
-      <c r="AF10" s="68">
+      <c r="AF10" s="67">
         <v>2.9661549871350799</v>
       </c>
-      <c r="AG10" s="68">
+      <c r="AG10" s="67">
         <v>2.9256126366409121</v>
       </c>
-      <c r="AH10" s="68">
+      <c r="AH10" s="67">
         <v>2.8897246923676643</v>
       </c>
-      <c r="AI10" s="68">
+      <c r="AI10" s="67">
         <v>2.8571543505870962</v>
       </c>
-      <c r="AJ10" s="68">
+      <c r="AJ10" s="67">
         <v>2.8274176478426241</v>
       </c>
-      <c r="AK10" s="68">
+      <c r="AK10" s="67">
         <v>2.800543755111605</v>
       </c>
-      <c r="AL10" s="68">
+      <c r="AL10" s="67">
         <v>2.7756732130126225</v>
       </c>
-      <c r="AM10" s="68">
+      <c r="AM10" s="67">
         <v>2.7535764060556338</v>
       </c>
-      <c r="AN10" s="68">
+      <c r="AN10" s="67">
         <v>2.7320585729613214</v>
       </c>
-      <c r="AO10" s="68">
+      <c r="AO10" s="67">
         <v>2.7115673581354076</v>
       </c>
-      <c r="AP10" s="68">
+      <c r="AP10" s="67">
         <v>2.6913563527822992</v>
       </c>
-      <c r="AQ10" s="68">
+      <c r="AQ10" s="67">
         <v>2.6733853093244808</v>
       </c>
-      <c r="AR10" s="68">
+      <c r="AR10" s="67">
         <v>2.6561558728977088</v>
       </c>
-      <c r="AS10" s="68">
+      <c r="AS10" s="67">
         <v>2.6390824798737635</v>
       </c>
-      <c r="AT10" s="68">
+      <c r="AT10" s="67">
         <v>2.6227723014950142</v>
       </c>
-      <c r="AU10" s="68">
+      <c r="AU10" s="67">
         <v>2.6077480425303672</v>
       </c>
-      <c r="AV10" s="68">
+      <c r="AV10" s="67">
         <v>2.5924526072223131</v>
       </c>
-      <c r="AW10" s="68">
+      <c r="AW10" s="67">
         <v>2.5777240193680613</v>
       </c>
-      <c r="AX10" s="68">
+      <c r="AX10" s="67">
         <v>2.5630928556782706</v>
       </c>
-      <c r="AY10" s="68">
+      <c r="AY10" s="67">
         <v>2.5495741124625075</v>
       </c>
-      <c r="AZ10" s="68">
+      <c r="AZ10" s="67">
         <v>2.5348496256597066</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="61" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:52" s="60" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61">
         <v>6.9801481979099398</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="61">
         <v>7.0272742244581439</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="61">
         <v>6.9903399883987376</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="61">
         <v>6.9254988424255384</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <v>7.7040177891117061</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <v>6.9689910025458079</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="61">
         <v>6.8753492902978195</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="61">
         <v>6.870079549277305</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="61">
         <v>6.6596060961488366</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <v>6.5336123610531143</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="61">
         <v>6.4240293316307664</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="61">
         <v>6.3428178846910077</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="61">
         <v>6.0491156702769899</v>
       </c>
-      <c r="P11" s="62">
+      <c r="P11" s="61">
         <v>5.8408333387208193</v>
       </c>
-      <c r="Q11" s="62">
+      <c r="Q11" s="61">
         <v>5.7574690323872968</v>
       </c>
-      <c r="R11" s="62">
+      <c r="R11" s="61">
         <v>5.5999636274743763</v>
       </c>
-      <c r="S11" s="62">
+      <c r="S11" s="61">
         <v>5.5127275638101203</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="61">
         <v>5.3360340552102716</v>
       </c>
-      <c r="U11" s="62">
+      <c r="U11" s="61">
         <v>5.2624767996585557</v>
       </c>
-      <c r="V11" s="62">
+      <c r="V11" s="61">
         <v>5.2381180700037921</v>
       </c>
-      <c r="W11" s="62">
+      <c r="W11" s="61">
         <v>5.2108330240283545</v>
       </c>
-      <c r="X11" s="62">
+      <c r="X11" s="61">
         <v>5.1637176114668479</v>
       </c>
-      <c r="Y11" s="62">
+      <c r="Y11" s="61">
         <v>5.1254225116583711</v>
       </c>
-      <c r="Z11" s="62">
+      <c r="Z11" s="61">
         <v>5.0836292409069976</v>
       </c>
-      <c r="AA11" s="62">
+      <c r="AA11" s="61">
         <v>5.0402403362063692</v>
       </c>
-      <c r="AB11" s="62">
+      <c r="AB11" s="61">
         <v>5.0033215405828821</v>
       </c>
-      <c r="AC11" s="62">
+      <c r="AC11" s="61">
         <v>4.9605203891188339</v>
       </c>
-      <c r="AD11" s="62">
+      <c r="AD11" s="61">
         <v>4.9189050753520078</v>
       </c>
-      <c r="AE11" s="62">
+      <c r="AE11" s="61">
         <v>4.8779969355839636</v>
       </c>
-      <c r="AF11" s="62">
+      <c r="AF11" s="61">
         <v>4.8372766211795817</v>
       </c>
-      <c r="AG11" s="62">
+      <c r="AG11" s="61">
         <v>4.800929174283584</v>
       </c>
-      <c r="AH11" s="62">
+      <c r="AH11" s="61">
         <v>4.7663976553686744</v>
       </c>
-      <c r="AI11" s="62">
+      <c r="AI11" s="61">
         <v>4.7357434855518985</v>
       </c>
-      <c r="AJ11" s="62">
+      <c r="AJ11" s="61">
         <v>4.702490252654413</v>
       </c>
-      <c r="AK11" s="62">
+      <c r="AK11" s="61">
         <v>4.6700180380021985</v>
       </c>
-      <c r="AL11" s="62">
+      <c r="AL11" s="61">
         <v>4.6377355555717612</v>
       </c>
-      <c r="AM11" s="62">
+      <c r="AM11" s="61">
         <v>4.6057761251437022</v>
       </c>
-      <c r="AN11" s="62">
+      <c r="AN11" s="61">
         <v>4.5743077797001321</v>
       </c>
-      <c r="AO11" s="62">
+      <c r="AO11" s="61">
         <v>4.543123012227098</v>
       </c>
-      <c r="AP11" s="62">
+      <c r="AP11" s="61">
         <v>4.5124320236961992</v>
       </c>
-      <c r="AQ11" s="62">
+      <c r="AQ11" s="61">
         <v>4.4819175414773786</v>
       </c>
-      <c r="AR11" s="62">
+      <c r="AR11" s="61">
         <v>4.4523522518258343</v>
       </c>
-      <c r="AS11" s="62">
+      <c r="AS11" s="61">
         <v>4.4231929401812744</v>
       </c>
-      <c r="AT11" s="62">
+      <c r="AT11" s="61">
         <v>4.3946397244793962</v>
       </c>
-      <c r="AU11" s="62">
+      <c r="AU11" s="61">
         <v>4.3665182323158449</v>
       </c>
-      <c r="AV11" s="62">
+      <c r="AV11" s="61">
         <v>4.3394008827214412</v>
       </c>
-      <c r="AW11" s="62">
+      <c r="AW11" s="61">
         <v>4.3120414766395561</v>
       </c>
-      <c r="AX11" s="62">
+      <c r="AX11" s="61">
         <v>4.2850978401105886</v>
       </c>
-      <c r="AY11" s="62">
+      <c r="AY11" s="61">
         <v>4.258833681127018</v>
       </c>
-      <c r="AZ11" s="62">
+      <c r="AZ11" s="61">
         <v>4.2319118753055029</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C12" s="70">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C12" s="69">
         <f>(C11-C10)/C11</f>
         <v>0.46413095403775334</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <f t="shared" ref="D12:AZ12" si="39">(D11-D10)/D11</f>
         <v>0.47581196869394071</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="69">
         <f t="shared" si="39"/>
         <v>0.4784806700382479</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <f t="shared" si="39"/>
         <v>0.44424351031229725</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="69">
         <f t="shared" si="39"/>
         <v>0.52506187793525472</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <f t="shared" si="39"/>
         <v>0.49093952227741505</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="69">
         <f t="shared" si="39"/>
         <v>0.48391458640888663</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="69">
         <f t="shared" si="39"/>
         <v>0.48649940176019296</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="69">
         <f t="shared" si="39"/>
         <v>0.47353488633369395</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="69">
         <f t="shared" si="39"/>
         <v>0.45859591765190305</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="69">
         <f t="shared" si="39"/>
         <v>0.44687319845220247</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="69">
         <f t="shared" si="39"/>
         <v>0.45829580741261955</v>
       </c>
-      <c r="O12" s="70">
+      <c r="O12" s="69">
         <f t="shared" si="39"/>
         <v>0.43969587580384206</v>
       </c>
-      <c r="P12" s="70">
+      <c r="P12" s="69">
         <f t="shared" si="39"/>
         <v>0.41696483762821507</v>
       </c>
-      <c r="Q12" s="70">
+      <c r="Q12" s="69">
         <f t="shared" si="39"/>
         <v>0.41932209079436561</v>
       </c>
-      <c r="R12" s="70">
+      <c r="R12" s="69">
         <f t="shared" si="39"/>
         <v>0.41456727719327963</v>
       </c>
-      <c r="S12" s="70">
+      <c r="S12" s="69">
         <f t="shared" si="39"/>
         <v>0.4074660466366215</v>
       </c>
-      <c r="T12" s="70">
+      <c r="T12" s="69">
         <f t="shared" si="39"/>
         <v>0.39102550777981243</v>
       </c>
-      <c r="U12" s="70">
+      <c r="U12" s="69">
         <f t="shared" si="39"/>
         <v>0.38501167186131102</v>
       </c>
-      <c r="V12" s="70">
+      <c r="V12" s="69">
         <f t="shared" si="39"/>
         <v>0.38353128428174421</v>
       </c>
-      <c r="W12" s="70">
+      <c r="W12" s="69">
         <f t="shared" si="39"/>
         <v>0.38295344775108792</v>
       </c>
-      <c r="X12" s="70">
+      <c r="X12" s="69">
         <f t="shared" si="39"/>
         <v>0.37884819790694585</v>
       </c>
-      <c r="Y12" s="70">
+      <c r="Y12" s="69">
         <f t="shared" si="39"/>
         <v>0.37647148845669903</v>
       </c>
-      <c r="Z12" s="70">
+      <c r="Z12" s="69">
         <f t="shared" si="39"/>
         <v>0.37494180471680888</v>
       </c>
-      <c r="AA12" s="70">
+      <c r="AA12" s="69">
         <f t="shared" si="39"/>
         <v>0.3742667505178971</v>
       </c>
-      <c r="AB12" s="70">
+      <c r="AB12" s="69">
         <f t="shared" si="39"/>
         <v>0.37536753349736568</v>
       </c>
-      <c r="AC12" s="70">
+      <c r="AC12" s="69">
         <f t="shared" si="39"/>
         <v>0.3770647109342718</v>
       </c>
-      <c r="AD12" s="70">
+      <c r="AD12" s="69">
         <f t="shared" si="39"/>
         <v>0.37990154082377214</v>
       </c>
-      <c r="AE12" s="70">
+      <c r="AE12" s="69">
         <f t="shared" si="39"/>
         <v>0.38338751899259038</v>
       </c>
-      <c r="AF12" s="70">
+      <c r="AF12" s="69">
         <f t="shared" si="39"/>
         <v>0.38681303150040325</v>
       </c>
-      <c r="AG12" s="70">
+      <c r="AG12" s="69">
         <f t="shared" si="39"/>
         <v>0.39061533081718813</v>
       </c>
-      <c r="AH12" s="70">
+      <c r="AH12" s="69">
         <f t="shared" si="39"/>
         <v>0.39372983512762577</v>
       </c>
-      <c r="AI12" s="70">
+      <c r="AI12" s="69">
         <f t="shared" si="39"/>
         <v>0.3966830426301845</v>
       </c>
-      <c r="AJ12" s="70">
+      <c r="AJ12" s="69">
         <f t="shared" si="39"/>
         <v>0.39874034906364075</v>
       </c>
-      <c r="AK12" s="70">
+      <c r="AK12" s="69">
         <f t="shared" si="39"/>
         <v>0.40031414604350046</v>
       </c>
-      <c r="AL12" s="70">
+      <c r="AL12" s="69">
         <f t="shared" si="39"/>
         <v>0.4015024833233673</v>
       </c>
-      <c r="AM12" s="70">
+      <c r="AM12" s="69">
         <f t="shared" si="39"/>
         <v>0.40214714496794585</v>
       </c>
-      <c r="AN12" s="70">
+      <c r="AN12" s="69">
         <f t="shared" si="39"/>
         <v>0.40273835855871926</v>
       </c>
-      <c r="AO12" s="70">
+      <c r="AO12" s="69">
         <f t="shared" si="39"/>
         <v>0.40314903408125813</v>
       </c>
-      <c r="AP12" s="70">
+      <c r="AP12" s="69">
         <f t="shared" si="39"/>
         <v>0.40356855490583771</v>
       </c>
-      <c r="AQ12" s="70">
+      <c r="AQ12" s="69">
         <f t="shared" si="39"/>
         <v>0.40351751575437278</v>
       </c>
-      <c r="AR12" s="70">
+      <c r="AR12" s="69">
         <f t="shared" si="39"/>
         <v>0.40342638617408039</v>
       </c>
-      <c r="AS12" s="70">
+      <c r="AS12" s="69">
         <f t="shared" si="39"/>
         <v>0.40335352412512965</v>
       </c>
-      <c r="AT12" s="70">
+      <c r="AT12" s="69">
         <f t="shared" si="39"/>
         <v>0.40318832351934913</v>
       </c>
-      <c r="AU12" s="70">
+      <c r="AU12" s="69">
         <f t="shared" si="39"/>
         <v>0.40278549091336074</v>
       </c>
-      <c r="AV12" s="70">
+      <c r="AV12" s="69">
         <f t="shared" si="39"/>
         <v>0.40257821821788797</v>
       </c>
-      <c r="AW12" s="70">
+      <c r="AW12" s="69">
         <f t="shared" si="39"/>
         <v>0.40220333377291084</v>
       </c>
-      <c r="AX12" s="70">
+      <c r="AX12" s="69">
         <f t="shared" si="39"/>
         <v>0.40185896534578941</v>
       </c>
-      <c r="AY12" s="70">
+      <c r="AY12" s="69">
         <f t="shared" si="39"/>
         <v>0.40134452214912231</v>
       </c>
-      <c r="AZ12" s="70">
+      <c r="AZ12" s="69">
         <f t="shared" si="39"/>
         <v>0.40101549834926203</v>
       </c>
